--- a/e2e_test_output_12week_forecast_test/simulation_output/module6/Module6Output_20240106.xlsx
+++ b/e2e_test_output_12week_forecast_test/simulation_output/module6/Module6Output_20240106.xlsx
@@ -1,16 +1,10 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="28925"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4505"/>
   <workbookPr defaultThemeVersion="124226"/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://pgone-my.sharepoint.com/personal/zhang_s_37_pg_com/Documents/Documents/GitHub/chainsight/e2e_test_output_12week_forecast_test/simulation_output/module6/"/>
-    </mc:Choice>
-  </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="14" documentId="11_EE082D4FC1B17AED5FD0348B6CB15ED9B8B2282F" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{9BCBC7C9-1385-428B-B8A7-F8414232DE9B}"/>
   <bookViews>
-    <workbookView xWindow="31365" yWindow="2130" windowWidth="17280" windowHeight="8880" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="240" yWindow="15" windowWidth="16095" windowHeight="9660"/>
   </bookViews>
   <sheets>
     <sheet name="DeliveryPlan" sheetId="1" r:id="rId1"/>
@@ -20,12 +14,12 @@
     <sheet name="ValidationLog" sheetId="5" r:id="rId5"/>
     <sheet name="BypassRuleHitLog" sheetId="6" r:id="rId6"/>
   </sheets>
-  <calcPr calcId="124519"/>
+  <calcPr calcId="124519" fullCalcOnLoad="1"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="122" uniqueCount="41">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="100" uniqueCount="39">
   <si>
     <t>vehicle_uid</t>
   </si>
@@ -69,40 +63,34 @@
     <t>20240106-PLANT_001-DC_001-LARGE-#1</t>
   </si>
   <si>
-    <t>20240106-PLANT_001-DC_001-LARGE-#2</t>
-  </si>
-  <si>
     <t>20240106-PLANT_001-DC_002-MEDIUM-#1</t>
   </si>
   <si>
-    <t>20240106-PLANT_001-DC_002-MEDIUM-#2</t>
-  </si>
-  <si>
-    <t>MAT_B|PLANT_001|DC_001|2024-01-02|net demand for forecast|000003</t>
-  </si>
-  <si>
-    <t>MAT_A|PLANT_001|DC_001|2024-01-02|net demand for forecast|000008</t>
-  </si>
-  <si>
-    <t>MAT_B|PLANT_001|DC_001|2024-01-03|net demand for forecast|000004</t>
-  </si>
-  <si>
-    <t>MAT_A|PLANT_001|DC_001|2024-01-03|net demand for forecast|000009</t>
-  </si>
-  <si>
-    <t>MAT_B|PLANT_001|DC_001|2024-01-03|net demand for forecast|000017</t>
-  </si>
-  <si>
-    <t>MAT_A|PLANT_001|DC_001|2024-01-03|net demand for forecast|000022</t>
-  </si>
-  <si>
-    <t>MAT_A|PLANT_001|DC_002|2024-01-02|net demand for forecast|000012</t>
-  </si>
-  <si>
-    <t>MAT_A|PLANT_001|DC_002|2024-01-03|net demand for forecast|000013</t>
-  </si>
-  <si>
-    <t>MAT_A|PLANT_001|DC_002|2024-01-03|net demand for forecast|000025</t>
+    <t>MAT_B|PLANT_001|DC_001|2024-01-07|net demand for forecast|000065</t>
+  </si>
+  <si>
+    <t>MAT_A|PLANT_001|DC_001|2024-01-07|net demand for forecast|000069</t>
+  </si>
+  <si>
+    <t>MAT_B|PLANT_001|DC_001|2024-01-08|net demand for forecast|000066</t>
+  </si>
+  <si>
+    <t>MAT_A|PLANT_001|DC_001|2024-01-08|net demand for forecast|000070</t>
+  </si>
+  <si>
+    <t>MAT_B|PLANT_001|DC_001|2024-01-09|net demand for forecast|000067</t>
+  </si>
+  <si>
+    <t>MAT_A|PLANT_001|DC_001|2024-01-09|net demand for forecast|000071</t>
+  </si>
+  <si>
+    <t>MAT_A|PLANT_001|DC_002|2024-01-07|net demand for forecast|000072</t>
+  </si>
+  <si>
+    <t>MAT_A|PLANT_001|DC_002|2024-01-08|net demand for forecast|000073</t>
+  </si>
+  <si>
+    <t>MAT_A|PLANT_001|DC_002|2024-01-09|net demand for forecast|000074</t>
   </si>
   <si>
     <t>MAT_B</t>
@@ -153,11 +141,11 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="1">
-    <numFmt numFmtId="164" formatCode="yyyy\-mm\-dd\ hh:mm:ss"/>
+    <numFmt numFmtId="164" formatCode="YYYY-MM-DD HH:MM:SS"/>
   </numFmts>
-  <fonts count="2" x14ac:knownFonts="1">
+  <fonts count="2">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -221,21 +209,13 @@
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
-  <extLst>
-    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
-      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
-    </ext>
-    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
-      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
-    </ext>
-  </extLst>
 </styleSheet>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme 2007 - 2010">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
   <a:themeElements>
-    <a:clrScheme name="Office 2007 - 2010">
+    <a:clrScheme name="Office">
       <a:dk1>
         <a:sysClr val="windowText" lastClr="000000"/>
       </a:dk1>
@@ -273,7 +253,7 @@
         <a:srgbClr val="800080"/>
       </a:folHlink>
     </a:clrScheme>
-    <a:fontScheme name="Office 2007 - 2010">
+    <a:fontScheme name="Office">
       <a:majorFont>
         <a:latin typeface="Cambria"/>
         <a:ea typeface=""/>
@@ -307,7 +287,6 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
-        <a:font script="Geor" typeface="Sylfaen"/>
       </a:majorFont>
       <a:minorFont>
         <a:latin typeface="Calibri"/>
@@ -342,10 +321,9 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
-        <a:font script="Geor" typeface="Sylfaen"/>
       </a:minorFont>
     </a:fontScheme>
-    <a:fmtScheme name="Office 2007 - 2010">
+    <a:fmtScheme name="Office">
       <a:fillStyleLst>
         <a:solidFill>
           <a:schemeClr val="phClr"/>
@@ -518,21 +496,14 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:M12"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <dimension ref="A1:M10"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="J9" sqref="J9"/>
-    </sheetView>
+    <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
-  <cols>
-    <col min="6" max="6" width="25" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="18.109375" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="19.33203125" bestFit="1" customWidth="1"/>
-  </cols>
+  <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:13">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -573,24 +544,24 @@
         <v>12</v>
       </c>
     </row>
-    <row r="2" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:13">
       <c r="A2" t="s">
         <v>13</v>
       </c>
       <c r="B2" t="s">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="C2" t="s">
-        <v>26</v>
+        <v>24</v>
       </c>
       <c r="D2" t="s">
-        <v>28</v>
+        <v>26</v>
       </c>
       <c r="E2" t="s">
-        <v>29</v>
+        <v>27</v>
       </c>
       <c r="F2" s="2">
-        <v>45293</v>
+        <v>45298</v>
       </c>
       <c r="G2" s="2">
         <v>45297</v>
@@ -599,39 +570,39 @@
         <v>45299</v>
       </c>
       <c r="I2">
-        <v>40</v>
+        <v>10</v>
       </c>
       <c r="J2" t="s">
-        <v>31</v>
+        <v>29</v>
       </c>
       <c r="K2">
-        <v>0.996</v>
+        <v>1</v>
       </c>
       <c r="L2">
-        <v>0.996</v>
+        <v>1</v>
       </c>
       <c r="M2">
-        <v>0.96499999999999997</v>
-      </c>
-    </row>
-    <row r="3" spans="1:13" x14ac:dyDescent="0.3">
+        <v>0.985</v>
+      </c>
+    </row>
+    <row r="3" spans="1:13">
       <c r="A3" t="s">
         <v>13</v>
       </c>
       <c r="B3" t="s">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="C3" t="s">
+        <v>25</v>
+      </c>
+      <c r="D3" t="s">
+        <v>26</v>
+      </c>
+      <c r="E3" t="s">
         <v>27</v>
       </c>
-      <c r="D3" t="s">
-        <v>28</v>
-      </c>
-      <c r="E3" t="s">
-        <v>29</v>
-      </c>
       <c r="F3" s="2">
-        <v>45293</v>
+        <v>45298</v>
       </c>
       <c r="G3" s="2">
         <v>45297</v>
@@ -640,39 +611,39 @@
         <v>45299</v>
       </c>
       <c r="I3">
-        <v>50</v>
+        <v>27</v>
       </c>
       <c r="J3" t="s">
-        <v>31</v>
+        <v>29</v>
       </c>
       <c r="K3">
-        <v>0.996</v>
+        <v>1</v>
       </c>
       <c r="L3">
-        <v>0.996</v>
+        <v>1</v>
       </c>
       <c r="M3">
-        <v>0.96499999999999997</v>
-      </c>
-    </row>
-    <row r="4" spans="1:13" x14ac:dyDescent="0.3">
+        <v>0.985</v>
+      </c>
+    </row>
+    <row r="4" spans="1:13">
       <c r="A4" t="s">
         <v>13</v>
       </c>
       <c r="B4" t="s">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="C4" t="s">
-        <v>26</v>
+        <v>24</v>
       </c>
       <c r="D4" t="s">
-        <v>28</v>
+        <v>26</v>
       </c>
       <c r="E4" t="s">
-        <v>29</v>
+        <v>27</v>
       </c>
       <c r="F4" s="2">
-        <v>45294</v>
+        <v>45299</v>
       </c>
       <c r="G4" s="2">
         <v>45297</v>
@@ -681,39 +652,39 @@
         <v>45299</v>
       </c>
       <c r="I4">
-        <v>22</v>
+        <v>10</v>
       </c>
       <c r="J4" t="s">
-        <v>31</v>
+        <v>29</v>
       </c>
       <c r="K4">
-        <v>0.996</v>
+        <v>1</v>
       </c>
       <c r="L4">
-        <v>0.996</v>
+        <v>1</v>
       </c>
       <c r="M4">
-        <v>0.96499999999999997</v>
-      </c>
-    </row>
-    <row r="5" spans="1:13" x14ac:dyDescent="0.3">
+        <v>0.985</v>
+      </c>
+    </row>
+    <row r="5" spans="1:13">
       <c r="A5" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="B5" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="C5" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="D5" t="s">
-        <v>28</v>
+        <v>26</v>
       </c>
       <c r="E5" t="s">
-        <v>29</v>
+        <v>27</v>
       </c>
       <c r="F5" s="2">
-        <v>45294</v>
+        <v>45299</v>
       </c>
       <c r="G5" s="2">
         <v>45297</v>
@@ -722,39 +693,39 @@
         <v>45299</v>
       </c>
       <c r="I5">
-        <v>18</v>
+        <v>27</v>
       </c>
       <c r="J5" t="s">
-        <v>31</v>
+        <v>29</v>
       </c>
       <c r="K5">
-        <v>0.99400000000000011</v>
+        <v>1</v>
       </c>
       <c r="L5">
-        <v>0.99400000000000011</v>
+        <v>1</v>
       </c>
       <c r="M5">
-        <v>0.96499999999999997</v>
-      </c>
-    </row>
-    <row r="6" spans="1:13" x14ac:dyDescent="0.3">
+        <v>0.985</v>
+      </c>
+    </row>
+    <row r="6" spans="1:13">
       <c r="A6" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="B6" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="C6" t="s">
+        <v>24</v>
+      </c>
+      <c r="D6" t="s">
+        <v>26</v>
+      </c>
+      <c r="E6" t="s">
         <v>27</v>
       </c>
-      <c r="D6" t="s">
-        <v>28</v>
-      </c>
-      <c r="E6" t="s">
-        <v>29</v>
-      </c>
       <c r="F6" s="2">
-        <v>45294</v>
+        <v>45300</v>
       </c>
       <c r="G6" s="2">
         <v>45297</v>
@@ -763,39 +734,39 @@
         <v>45299</v>
       </c>
       <c r="I6">
-        <v>50</v>
+        <v>10</v>
       </c>
       <c r="J6" t="s">
-        <v>31</v>
+        <v>29</v>
       </c>
       <c r="K6">
-        <v>0.99400000000000011</v>
+        <v>1</v>
       </c>
       <c r="L6">
-        <v>0.99400000000000011</v>
+        <v>1</v>
       </c>
       <c r="M6">
-        <v>0.96499999999999997</v>
-      </c>
-    </row>
-    <row r="7" spans="1:13" x14ac:dyDescent="0.3">
+        <v>0.985</v>
+      </c>
+    </row>
+    <row r="7" spans="1:13">
       <c r="A7" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="B7" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="C7" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="D7" t="s">
-        <v>28</v>
+        <v>26</v>
       </c>
       <c r="E7" t="s">
-        <v>29</v>
+        <v>27</v>
       </c>
       <c r="F7" s="2">
-        <v>45294</v>
+        <v>45300</v>
       </c>
       <c r="G7" s="2">
         <v>45297</v>
@@ -804,39 +775,39 @@
         <v>45299</v>
       </c>
       <c r="I7">
-        <v>40</v>
+        <v>22</v>
       </c>
       <c r="J7" t="s">
-        <v>31</v>
+        <v>29</v>
       </c>
       <c r="K7">
-        <v>0.99400000000000011</v>
+        <v>1</v>
       </c>
       <c r="L7">
-        <v>0.99400000000000011</v>
+        <v>1</v>
       </c>
       <c r="M7">
-        <v>0.96499999999999997</v>
-      </c>
-    </row>
-    <row r="8" spans="1:13" x14ac:dyDescent="0.3">
+        <v>0.985</v>
+      </c>
+    </row>
+    <row r="8" spans="1:13">
       <c r="A8" t="s">
         <v>14</v>
       </c>
       <c r="B8" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="C8" t="s">
-        <v>27</v>
+        <v>25</v>
       </c>
       <c r="D8" t="s">
+        <v>26</v>
+      </c>
+      <c r="E8" t="s">
         <v>28</v>
       </c>
-      <c r="E8" t="s">
-        <v>29</v>
-      </c>
       <c r="F8" s="2">
-        <v>45294</v>
+        <v>45298</v>
       </c>
       <c r="G8" s="2">
         <v>45297</v>
@@ -845,39 +816,39 @@
         <v>45299</v>
       </c>
       <c r="I8">
-        <v>3</v>
+        <v>27</v>
       </c>
       <c r="J8" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="K8">
-        <v>0.99400000000000011</v>
+        <v>1</v>
       </c>
       <c r="L8">
-        <v>0.99400000000000011</v>
+        <v>1</v>
       </c>
       <c r="M8">
-        <v>0.96499999999999997</v>
-      </c>
-    </row>
-    <row r="9" spans="1:13" x14ac:dyDescent="0.3">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="9" spans="1:13">
       <c r="A9" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="B9" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="C9" t="s">
-        <v>27</v>
+        <v>25</v>
       </c>
       <c r="D9" t="s">
+        <v>26</v>
+      </c>
+      <c r="E9" t="s">
         <v>28</v>
       </c>
-      <c r="E9" t="s">
-        <v>30</v>
-      </c>
       <c r="F9" s="2">
-        <v>45293</v>
+        <v>45299</v>
       </c>
       <c r="G9" s="2">
         <v>45297</v>
@@ -886,10 +857,10 @@
         <v>45299</v>
       </c>
       <c r="I9">
-        <v>50</v>
+        <v>27</v>
       </c>
       <c r="J9" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="K9">
         <v>1</v>
@@ -901,24 +872,24 @@
         <v>1</v>
       </c>
     </row>
-    <row r="10" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:13">
       <c r="A10" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="B10" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="C10" t="s">
-        <v>27</v>
+        <v>25</v>
       </c>
       <c r="D10" t="s">
+        <v>26</v>
+      </c>
+      <c r="E10" t="s">
         <v>28</v>
       </c>
-      <c r="E10" t="s">
-        <v>30</v>
-      </c>
       <c r="F10" s="2">
-        <v>45294</v>
+        <v>45300</v>
       </c>
       <c r="G10" s="2">
         <v>45297</v>
@@ -927,10 +898,10 @@
         <v>45299</v>
       </c>
       <c r="I10">
-        <v>10</v>
+        <v>6</v>
       </c>
       <c r="J10" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="K10">
         <v>1</v>
@@ -939,110 +910,25 @@
         <v>1</v>
       </c>
       <c r="M10">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="11" spans="1:13" x14ac:dyDescent="0.3">
-      <c r="A11" t="s">
-        <v>16</v>
-      </c>
-      <c r="B11" t="s">
-        <v>24</v>
-      </c>
-      <c r="C11" t="s">
-        <v>27</v>
-      </c>
-      <c r="D11" t="s">
-        <v>28</v>
-      </c>
-      <c r="E11" t="s">
-        <v>30</v>
-      </c>
-      <c r="F11" s="2">
-        <v>45294</v>
-      </c>
-      <c r="G11" s="2">
-        <v>45297</v>
-      </c>
-      <c r="H11" s="2">
-        <v>45300</v>
-      </c>
-      <c r="I11">
-        <v>40</v>
-      </c>
-      <c r="J11" t="s">
-        <v>32</v>
-      </c>
-      <c r="K11">
-        <v>1</v>
-      </c>
-      <c r="L11">
-        <v>1</v>
-      </c>
-      <c r="M11">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="12" spans="1:13" x14ac:dyDescent="0.3">
-      <c r="A12" t="s">
-        <v>16</v>
-      </c>
-      <c r="B12" t="s">
-        <v>25</v>
-      </c>
-      <c r="C12" t="s">
-        <v>27</v>
-      </c>
-      <c r="D12" t="s">
-        <v>28</v>
-      </c>
-      <c r="E12" t="s">
-        <v>30</v>
-      </c>
-      <c r="F12" s="2">
-        <v>45294</v>
-      </c>
-      <c r="G12" s="2">
-        <v>45297</v>
-      </c>
-      <c r="H12" s="2">
-        <v>45299</v>
-      </c>
-      <c r="I12">
-        <v>20</v>
-      </c>
-      <c r="J12" t="s">
-        <v>32</v>
-      </c>
-      <c r="K12">
-        <v>1</v>
-      </c>
-      <c r="L12">
-        <v>1</v>
-      </c>
-      <c r="M12">
         <v>1</v>
       </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <customProperties>
-    <customPr name="IbpWorksheetKeyString_GUID" r:id="rId1"/>
-  </customProperties>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
-  <dimension ref="A1:L5"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <dimension ref="A1:L3"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:12">
       <c r="A1" s="1" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
       <c r="B1" s="1" t="s">
         <v>3</v>
@@ -1054,19 +940,19 @@
         <v>9</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>34</v>
+        <v>32</v>
       </c>
       <c r="F1" s="1" t="s">
         <v>0</v>
       </c>
       <c r="G1" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="H1" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="I1" s="1" t="s">
         <v>35</v>
-      </c>
-      <c r="H1" s="1" t="s">
-        <v>36</v>
-      </c>
-      <c r="I1" s="1" t="s">
-        <v>37</v>
       </c>
       <c r="J1" s="1" t="s">
         <v>11</v>
@@ -1075,21 +961,21 @@
         <v>12</v>
       </c>
       <c r="L1" s="1" t="s">
-        <v>38</v>
-      </c>
-    </row>
-    <row r="2" spans="1:12" x14ac:dyDescent="0.3">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="2" spans="1:12">
       <c r="A2" s="2">
         <v>45297</v>
       </c>
       <c r="B2" t="s">
-        <v>28</v>
+        <v>26</v>
       </c>
       <c r="C2" t="s">
+        <v>27</v>
+      </c>
+      <c r="D2" t="s">
         <v>29</v>
-      </c>
-      <c r="D2" t="s">
-        <v>31</v>
       </c>
       <c r="E2">
         <v>1</v>
@@ -1098,136 +984,60 @@
         <v>13</v>
       </c>
       <c r="G2">
-        <v>112</v>
+        <v>106</v>
       </c>
       <c r="H2">
-        <v>99.6</v>
+        <v>100</v>
       </c>
       <c r="I2">
-        <v>193</v>
+        <v>197</v>
       </c>
       <c r="J2">
-        <v>0.996</v>
+        <v>1</v>
       </c>
       <c r="K2">
-        <v>0.96499999999999997</v>
+        <v>0.985</v>
       </c>
       <c r="L2" t="s">
-        <v>39</v>
-      </c>
-    </row>
-    <row r="3" spans="1:12" x14ac:dyDescent="0.3">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="3" spans="1:12">
       <c r="A3" s="2">
         <v>45297</v>
       </c>
       <c r="B3" t="s">
+        <v>26</v>
+      </c>
+      <c r="C3" t="s">
         <v>28</v>
       </c>
-      <c r="C3" t="s">
-        <v>29</v>
-      </c>
       <c r="D3" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="E3">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="F3" t="s">
         <v>14</v>
       </c>
       <c r="G3">
-        <v>111</v>
+        <v>60</v>
       </c>
       <c r="H3">
-        <v>99.4</v>
+        <v>60</v>
       </c>
       <c r="I3">
-        <v>193</v>
+        <v>120</v>
       </c>
       <c r="J3">
-        <v>0.99400000000000011</v>
+        <v>1</v>
       </c>
       <c r="K3">
-        <v>0.96499999999999997</v>
+        <v>1</v>
       </c>
       <c r="L3" t="s">
-        <v>39</v>
-      </c>
-    </row>
-    <row r="4" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="A4" s="2">
-        <v>45297</v>
-      </c>
-      <c r="B4" t="s">
-        <v>28</v>
-      </c>
-      <c r="C4" t="s">
-        <v>30</v>
-      </c>
-      <c r="D4" t="s">
-        <v>32</v>
-      </c>
-      <c r="E4">
-        <v>1</v>
-      </c>
-      <c r="F4" t="s">
-        <v>15</v>
-      </c>
-      <c r="G4">
-        <v>60</v>
-      </c>
-      <c r="H4">
-        <v>60</v>
-      </c>
-      <c r="I4">
-        <v>120</v>
-      </c>
-      <c r="J4">
-        <v>1</v>
-      </c>
-      <c r="K4">
-        <v>1</v>
-      </c>
-      <c r="L4" t="s">
-        <v>39</v>
-      </c>
-    </row>
-    <row r="5" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="A5" s="2">
-        <v>45297</v>
-      </c>
-      <c r="B5" t="s">
-        <v>28</v>
-      </c>
-      <c r="C5" t="s">
-        <v>30</v>
-      </c>
-      <c r="D5" t="s">
-        <v>32</v>
-      </c>
-      <c r="E5">
-        <v>2</v>
-      </c>
-      <c r="F5" t="s">
-        <v>16</v>
-      </c>
-      <c r="G5">
-        <v>60</v>
-      </c>
-      <c r="H5">
-        <v>60</v>
-      </c>
-      <c r="I5">
-        <v>120</v>
-      </c>
-      <c r="J5">
-        <v>1</v>
-      </c>
-      <c r="K5">
-        <v>1</v>
-      </c>
-      <c r="L5" t="s">
-        <v>39</v>
+        <v>37</v>
       </c>
     </row>
   </sheetData>
@@ -1236,16 +1046,16 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:E3"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:5">
       <c r="A1" s="1" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
       <c r="B1" s="1" t="s">
         <v>3</v>
@@ -1257,41 +1067,41 @@
         <v>9</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>40</v>
-      </c>
-    </row>
-    <row r="2" spans="1:5" x14ac:dyDescent="0.3">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="2" spans="1:5">
       <c r="A2" s="2">
         <v>45297</v>
       </c>
       <c r="B2" t="s">
+        <v>26</v>
+      </c>
+      <c r="C2" t="s">
+        <v>27</v>
+      </c>
+      <c r="D2" t="s">
+        <v>29</v>
+      </c>
+      <c r="E2">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="3" spans="1:5">
+      <c r="A3" s="2">
+        <v>45297</v>
+      </c>
+      <c r="B3" t="s">
+        <v>26</v>
+      </c>
+      <c r="C3" t="s">
         <v>28</v>
       </c>
-      <c r="C2" t="s">
-        <v>29</v>
-      </c>
-      <c r="D2" t="s">
-        <v>31</v>
-      </c>
-      <c r="E2">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="3" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A3" s="2">
-        <v>45297</v>
-      </c>
-      <c r="B3" t="s">
-        <v>28</v>
-      </c>
-      <c r="C3" t="s">
+      <c r="D3" t="s">
         <v>30</v>
       </c>
-      <c r="D3" t="s">
-        <v>32</v>
-      </c>
       <c r="E3">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
   </sheetData>
@@ -1300,36 +1110,36 @@
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0300-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15"/>
   <sheetData/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0400-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15"/>
   <sheetData/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0500-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15"/>
   <sheetData/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/e2e_test_output_12week_forecast_test/simulation_output/module6/Module6Output_20240106.xlsx
+++ b/e2e_test_output_12week_forecast_test/simulation_output/module6/Module6Output_20240106.xlsx
@@ -19,26 +19,71 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="17" uniqueCount="13">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="53" uniqueCount="32">
+  <si>
+    <t>vehicle_uid</t>
+  </si>
+  <si>
+    <t>ori_deployment_uid</t>
+  </si>
+  <si>
+    <t>material</t>
+  </si>
+  <si>
+    <t>sending</t>
+  </si>
+  <si>
+    <t>receiving</t>
+  </si>
+  <si>
+    <t>planned_deployment_date</t>
+  </si>
+  <si>
+    <t>actual_ship_date</t>
+  </si>
+  <si>
+    <t>actual_delivery_date</t>
+  </si>
+  <si>
+    <t>delivery_qty</t>
+  </si>
+  <si>
+    <t>truck_type</t>
+  </si>
+  <si>
+    <t>truck_load_pct</t>
+  </si>
+  <si>
+    <t>WFR</t>
+  </si>
+  <si>
+    <t>VFR</t>
+  </si>
+  <si>
+    <t>20240106-PLANT_001-DC_001-LARGE-#1</t>
+  </si>
+  <si>
+    <t>MAT_B|PLANT_001|DC_001|2024-01-01|net demand for safety|000020</t>
+  </si>
+  <si>
+    <t>MAT_B</t>
+  </si>
+  <si>
+    <t>PLANT_001</t>
+  </si>
+  <si>
+    <t>DC_001</t>
+  </si>
+  <si>
+    <t>LARGE</t>
+  </si>
   <si>
     <t>date</t>
   </si>
   <si>
-    <t>sending</t>
-  </si>
-  <si>
-    <t>receiving</t>
-  </si>
-  <si>
-    <t>truck_type</t>
-  </si>
-  <si>
     <t>vehicle_no</t>
   </si>
   <si>
-    <t>vehicle_uid</t>
-  </si>
-  <si>
     <t>total_units</t>
   </si>
   <si>
@@ -48,22 +93,37 @@
     <t>total_volume</t>
   </si>
   <si>
-    <t>WFR</t>
-  </si>
-  <si>
-    <t>VFR</t>
-  </si>
-  <si>
     <t>trigger</t>
   </si>
   <si>
+    <t>bypass</t>
+  </si>
+  <si>
     <t>truck_used</t>
+  </si>
+  <si>
+    <t>rule_id</t>
+  </si>
+  <si>
+    <t>simulation_date</t>
+  </si>
+  <si>
+    <t>context_snapshot</t>
+  </si>
+  <si>
+    <t>WAITING_BYPASS</t>
+  </si>
+  <si>
+    <t>{'sending': 'PLANT_001', 'receiving': 'DC_001', 'truck_type': 'LARGE', 'demand_element': 'net demand for safety', 'waiting_days': 6, 'deployed_qty_ratio': 0.12, 'exception_MDQ': 0}</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <numFmts count="1">
+    <numFmt numFmtId="164" formatCode="YYYY-MM-DD HH:MM:SS"/>
+  </numFmts>
   <fonts count="2">
     <font>
       <sz val="11"/>
@@ -116,11 +176,12 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="2">
+  <cellXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
     </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -415,19 +476,102 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1"/>
+  <dimension ref="A1:M2"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
-  <sheetData/>
+  <sheetData>
+    <row r="1" spans="1:13">
+      <c r="A1" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="E1" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="F1" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="G1" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="H1" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="I1" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="J1" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="K1" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="L1" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="M1" s="1" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="2" spans="1:13">
+      <c r="A2" t="s">
+        <v>13</v>
+      </c>
+      <c r="B2" t="s">
+        <v>14</v>
+      </c>
+      <c r="C2" t="s">
+        <v>15</v>
+      </c>
+      <c r="D2" t="s">
+        <v>16</v>
+      </c>
+      <c r="E2" t="s">
+        <v>17</v>
+      </c>
+      <c r="F2" s="2">
+        <v>45292</v>
+      </c>
+      <c r="G2" s="2">
+        <v>45297</v>
+      </c>
+      <c r="H2" s="2">
+        <v>45299</v>
+      </c>
+      <c r="I2">
+        <v>24</v>
+      </c>
+      <c r="J2" t="s">
+        <v>18</v>
+      </c>
+      <c r="K2">
+        <v>0.192</v>
+      </c>
+      <c r="L2">
+        <v>0.192</v>
+      </c>
+      <c r="M2">
+        <v>0.18</v>
+      </c>
+    </row>
+  </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:L1"/>
+  <dimension ref="A1:L2"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -435,40 +579,78 @@
   <sheetData>
     <row r="1" spans="1:12">
       <c r="A1" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="E1" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="F1" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="1" t="s">
+      <c r="G1" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="H1" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="I1" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="J1" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="K1" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="L1" s="1" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="2" spans="1:12">
+      <c r="A2" s="2">
+        <v>45297</v>
+      </c>
+      <c r="B2" t="s">
+        <v>16</v>
+      </c>
+      <c r="C2" t="s">
+        <v>17</v>
+      </c>
+      <c r="D2" t="s">
+        <v>18</v>
+      </c>
+      <c r="E2">
         <v>1</v>
       </c>
-      <c r="C1" s="1" t="s">
-        <v>2</v>
-      </c>
-      <c r="D1" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="E1" s="1" t="s">
-        <v>4</v>
-      </c>
-      <c r="F1" s="1" t="s">
-        <v>5</v>
-      </c>
-      <c r="G1" s="1" t="s">
-        <v>6</v>
-      </c>
-      <c r="H1" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="I1" s="1" t="s">
-        <v>8</v>
-      </c>
-      <c r="J1" s="1" t="s">
-        <v>9</v>
-      </c>
-      <c r="K1" s="1" t="s">
-        <v>10</v>
-      </c>
-      <c r="L1" s="1" t="s">
-        <v>11</v>
+      <c r="F2" t="s">
+        <v>13</v>
+      </c>
+      <c r="G2">
+        <v>24</v>
+      </c>
+      <c r="H2">
+        <v>19.2</v>
+      </c>
+      <c r="I2">
+        <v>36</v>
+      </c>
+      <c r="J2">
+        <v>0.192</v>
+      </c>
+      <c r="K2">
+        <v>0.18</v>
+      </c>
+      <c r="L2" t="s">
+        <v>25</v>
       </c>
     </row>
   </sheetData>
@@ -478,7 +660,7 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:E1"/>
+  <dimension ref="A1:E2"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -486,19 +668,36 @@
   <sheetData>
     <row r="1" spans="1:5">
       <c r="A1" s="1" t="s">
-        <v>0</v>
+        <v>19</v>
       </c>
       <c r="B1" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="E1" s="1" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="2" spans="1:5">
+      <c r="A2" s="2">
+        <v>45297</v>
+      </c>
+      <c r="B2" t="s">
+        <v>16</v>
+      </c>
+      <c r="C2" t="s">
+        <v>17</v>
+      </c>
+      <c r="D2" t="s">
+        <v>18</v>
+      </c>
+      <c r="E2">
         <v>1</v>
-      </c>
-      <c r="C1" s="1" t="s">
-        <v>2</v>
-      </c>
-      <c r="D1" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="E1" s="1" t="s">
-        <v>12</v>
       </c>
     </row>
   </sheetData>
@@ -532,12 +731,47 @@
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1"/>
+  <dimension ref="A1:E2"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
-  <sheetData/>
+  <sheetData>
+    <row r="1" spans="1:5">
+      <c r="A1" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="E1" s="1" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="2" spans="1:5">
+      <c r="A2" t="s">
+        <v>14</v>
+      </c>
+      <c r="B2" t="s">
+        <v>30</v>
+      </c>
+      <c r="C2" s="2">
+        <v>45297</v>
+      </c>
+      <c r="D2" t="s">
+        <v>31</v>
+      </c>
+      <c r="E2" t="s">
+        <v>13</v>
+      </c>
+    </row>
+  </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
--- a/e2e_test_output_12week_forecast_test/simulation_output/module6/Module6Output_20240106.xlsx
+++ b/e2e_test_output_12week_forecast_test/simulation_output/module6/Module6Output_20240106.xlsx
@@ -19,39 +19,33 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="53" uniqueCount="32">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="37" uniqueCount="29">
+  <si>
+    <t>date</t>
+  </si>
+  <si>
+    <t>sending</t>
+  </si>
+  <si>
+    <t>receiving</t>
+  </si>
+  <si>
+    <t>truck_type</t>
+  </si>
+  <si>
+    <t>vehicle_no</t>
+  </si>
   <si>
     <t>vehicle_uid</t>
   </si>
   <si>
-    <t>ori_deployment_uid</t>
-  </si>
-  <si>
-    <t>material</t>
-  </si>
-  <si>
-    <t>sending</t>
-  </si>
-  <si>
-    <t>receiving</t>
-  </si>
-  <si>
-    <t>planned_deployment_date</t>
-  </si>
-  <si>
-    <t>actual_ship_date</t>
-  </si>
-  <si>
-    <t>actual_delivery_date</t>
-  </si>
-  <si>
-    <t>delivery_qty</t>
-  </si>
-  <si>
-    <t>truck_type</t>
-  </si>
-  <si>
-    <t>truck_load_pct</t>
+    <t>total_units</t>
+  </si>
+  <si>
+    <t>total_weight</t>
+  </si>
+  <si>
+    <t>total_volume</t>
   </si>
   <si>
     <t>WFR</t>
@@ -60,70 +54,64 @@
     <t>VFR</t>
   </si>
   <si>
-    <t>20240106-PLANT_001-DC_001-LARGE-#1</t>
-  </si>
-  <si>
-    <t>MAT_B|PLANT_001|DC_001|2024-01-01|net demand for safety|000020</t>
-  </si>
-  <si>
-    <t>MAT_B</t>
-  </si>
-  <si>
-    <t>PLANT_001</t>
-  </si>
-  <si>
-    <t>DC_001</t>
-  </si>
-  <si>
-    <t>LARGE</t>
-  </si>
-  <si>
-    <t>date</t>
-  </si>
-  <si>
-    <t>vehicle_no</t>
-  </si>
-  <si>
-    <t>total_units</t>
-  </si>
-  <si>
-    <t>total_weight</t>
-  </si>
-  <si>
-    <t>total_volume</t>
-  </si>
-  <si>
     <t>trigger</t>
   </si>
   <si>
-    <t>bypass</t>
-  </si>
-  <si>
     <t>truck_used</t>
   </si>
   <si>
-    <t>rule_id</t>
-  </si>
-  <si>
-    <t>simulation_date</t>
-  </si>
-  <si>
-    <t>context_snapshot</t>
-  </si>
-  <si>
-    <t>WAITING_BYPASS</t>
-  </si>
-  <si>
-    <t>{'sending': 'PLANT_001', 'receiving': 'DC_001', 'truck_type': 'LARGE', 'demand_element': 'net demand for safety', 'waiting_days': 6, 'deployed_qty_ratio': 0.12, 'exception_MDQ': 0}</t>
+    <t>sheet</t>
+  </si>
+  <si>
+    <t>row</t>
+  </si>
+  <si>
+    <t>issue</t>
+  </si>
+  <si>
+    <t>severity</t>
+  </si>
+  <si>
+    <t>impact</t>
+  </si>
+  <si>
+    <t>missing_element</t>
+  </si>
+  <si>
+    <t>affected_records</t>
+  </si>
+  <si>
+    <t>route_breakdown</t>
+  </si>
+  <si>
+    <t>Global_DemandPriority</t>
+  </si>
+  <si>
+    <t>Missing priority configuration for demand_element "net demand for AO" (affects 1 records: cross_node: 1). Records will be filtered out and not processed.</t>
+  </si>
+  <si>
+    <t>Missing priority configuration for demand_element "net demand for normal" (affects 1 records: cross_node: 1). Records will be filtered out and not processed.</t>
+  </si>
+  <si>
+    <t>ERROR</t>
+  </si>
+  <si>
+    <t>Data Loss - 1 deployment plans excluded</t>
+  </si>
+  <si>
+    <t>net demand for AO</t>
+  </si>
+  <si>
+    <t>net demand for normal</t>
+  </si>
+  <si>
+    <t>cross_node: 1</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <numFmts count="1">
-    <numFmt numFmtId="164" formatCode="YYYY-MM-DD HH:MM:SS"/>
-  </numFmts>
   <fonts count="2">
     <font>
       <sz val="11"/>
@@ -176,12 +164,11 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="3">
+  <cellXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
     </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -476,102 +463,19 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:M2"/>
+  <dimension ref="A1"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
-  <sheetData>
-    <row r="1" spans="1:13">
-      <c r="A1" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="B1" s="1" t="s">
-        <v>1</v>
-      </c>
-      <c r="C1" s="1" t="s">
-        <v>2</v>
-      </c>
-      <c r="D1" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="E1" s="1" t="s">
-        <v>4</v>
-      </c>
-      <c r="F1" s="1" t="s">
-        <v>5</v>
-      </c>
-      <c r="G1" s="1" t="s">
-        <v>6</v>
-      </c>
-      <c r="H1" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="I1" s="1" t="s">
-        <v>8</v>
-      </c>
-      <c r="J1" s="1" t="s">
-        <v>9</v>
-      </c>
-      <c r="K1" s="1" t="s">
-        <v>10</v>
-      </c>
-      <c r="L1" s="1" t="s">
-        <v>11</v>
-      </c>
-      <c r="M1" s="1" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="2" spans="1:13">
-      <c r="A2" t="s">
-        <v>13</v>
-      </c>
-      <c r="B2" t="s">
-        <v>14</v>
-      </c>
-      <c r="C2" t="s">
-        <v>15</v>
-      </c>
-      <c r="D2" t="s">
-        <v>16</v>
-      </c>
-      <c r="E2" t="s">
-        <v>17</v>
-      </c>
-      <c r="F2" s="2">
-        <v>45292</v>
-      </c>
-      <c r="G2" s="2">
-        <v>45297</v>
-      </c>
-      <c r="H2" s="2">
-        <v>45299</v>
-      </c>
-      <c r="I2">
-        <v>24</v>
-      </c>
-      <c r="J2" t="s">
-        <v>18</v>
-      </c>
-      <c r="K2">
-        <v>0.192</v>
-      </c>
-      <c r="L2">
-        <v>0.192</v>
-      </c>
-      <c r="M2">
-        <v>0.18</v>
-      </c>
-    </row>
-  </sheetData>
+  <sheetData/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:L2"/>
+  <dimension ref="A1:L1"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -579,78 +483,40 @@
   <sheetData>
     <row r="1" spans="1:12">
       <c r="A1" s="1" t="s">
-        <v>19</v>
+        <v>0</v>
       </c>
       <c r="B1" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="D1" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="C1" s="1" t="s">
+      <c r="E1" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="D1" s="1" t="s">
+      <c r="F1" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="G1" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="H1" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="I1" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="J1" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="E1" s="1" t="s">
-        <v>20</v>
-      </c>
-      <c r="F1" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="G1" s="1" t="s">
-        <v>21</v>
-      </c>
-      <c r="H1" s="1" t="s">
-        <v>22</v>
-      </c>
-      <c r="I1" s="1" t="s">
-        <v>23</v>
-      </c>
-      <c r="J1" s="1" t="s">
+      <c r="K1" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="L1" s="1" t="s">
         <v>11</v>
-      </c>
-      <c r="K1" s="1" t="s">
-        <v>12</v>
-      </c>
-      <c r="L1" s="1" t="s">
-        <v>24</v>
-      </c>
-    </row>
-    <row r="2" spans="1:12">
-      <c r="A2" s="2">
-        <v>45297</v>
-      </c>
-      <c r="B2" t="s">
-        <v>16</v>
-      </c>
-      <c r="C2" t="s">
-        <v>17</v>
-      </c>
-      <c r="D2" t="s">
-        <v>18</v>
-      </c>
-      <c r="E2">
-        <v>1</v>
-      </c>
-      <c r="F2" t="s">
-        <v>13</v>
-      </c>
-      <c r="G2">
-        <v>24</v>
-      </c>
-      <c r="H2">
-        <v>19.2</v>
-      </c>
-      <c r="I2">
-        <v>36</v>
-      </c>
-      <c r="J2">
-        <v>0.192</v>
-      </c>
-      <c r="K2">
-        <v>0.18</v>
-      </c>
-      <c r="L2" t="s">
-        <v>25</v>
       </c>
     </row>
   </sheetData>
@@ -660,7 +526,7 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:E2"/>
+  <dimension ref="A1:E1"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -668,36 +534,19 @@
   <sheetData>
     <row r="1" spans="1:5">
       <c r="A1" s="1" t="s">
-        <v>19</v>
+        <v>0</v>
       </c>
       <c r="B1" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="D1" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="C1" s="1" t="s">
-        <v>4</v>
-      </c>
-      <c r="D1" s="1" t="s">
-        <v>9</v>
-      </c>
       <c r="E1" s="1" t="s">
-        <v>26</v>
-      </c>
-    </row>
-    <row r="2" spans="1:5">
-      <c r="A2" s="2">
-        <v>45297</v>
-      </c>
-      <c r="B2" t="s">
-        <v>16</v>
-      </c>
-      <c r="C2" t="s">
-        <v>17</v>
-      </c>
-      <c r="D2" t="s">
-        <v>18</v>
-      </c>
-      <c r="E2">
-        <v>1</v>
+        <v>12</v>
       </c>
     </row>
   </sheetData>
@@ -719,6 +568,91 @@
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <dimension ref="A1:H3"/>
+  <sheetViews>
+    <sheetView workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1" spans="1:8">
+      <c r="A1" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="E1" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="F1" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="G1" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="H1" s="1" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="2" spans="1:8">
+      <c r="A2" t="s">
+        <v>21</v>
+      </c>
+      <c r="C2" t="s">
+        <v>22</v>
+      </c>
+      <c r="D2" t="s">
+        <v>24</v>
+      </c>
+      <c r="E2" t="s">
+        <v>25</v>
+      </c>
+      <c r="F2" t="s">
+        <v>26</v>
+      </c>
+      <c r="G2">
+        <v>1</v>
+      </c>
+      <c r="H2" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="3" spans="1:8">
+      <c r="A3" t="s">
+        <v>21</v>
+      </c>
+      <c r="C3" t="s">
+        <v>23</v>
+      </c>
+      <c r="D3" t="s">
+        <v>24</v>
+      </c>
+      <c r="E3" t="s">
+        <v>25</v>
+      </c>
+      <c r="F3" t="s">
+        <v>27</v>
+      </c>
+      <c r="G3">
+        <v>1</v>
+      </c>
+      <c r="H3" t="s">
+        <v>28</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
@@ -727,51 +661,4 @@
   <sheetData/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
-</file>
-
-<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:E2"/>
-  <sheetViews>
-    <sheetView workbookViewId="0"/>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
-  <sheetData>
-    <row r="1" spans="1:5">
-      <c r="A1" s="1" t="s">
-        <v>1</v>
-      </c>
-      <c r="B1" s="1" t="s">
-        <v>27</v>
-      </c>
-      <c r="C1" s="1" t="s">
-        <v>28</v>
-      </c>
-      <c r="D1" s="1" t="s">
-        <v>29</v>
-      </c>
-      <c r="E1" s="1" t="s">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="2" spans="1:5">
-      <c r="A2" t="s">
-        <v>14</v>
-      </c>
-      <c r="B2" t="s">
-        <v>30</v>
-      </c>
-      <c r="C2" s="2">
-        <v>45297</v>
-      </c>
-      <c r="D2" t="s">
-        <v>31</v>
-      </c>
-      <c r="E2" t="s">
-        <v>13</v>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
 </file>
--- a/e2e_test_output_12week_forecast_test/simulation_output/module6/Module6Output_20240106.xlsx
+++ b/e2e_test_output_12week_forecast_test/simulation_output/module6/Module6Output_20240106.xlsx
@@ -19,26 +19,107 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="37" uniqueCount="29">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="136" uniqueCount="55">
+  <si>
+    <t>vehicle_uid</t>
+  </si>
+  <si>
+    <t>ori_deployment_uid</t>
+  </si>
+  <si>
+    <t>material</t>
+  </si>
+  <si>
+    <t>sending</t>
+  </si>
+  <si>
+    <t>receiving</t>
+  </si>
+  <si>
+    <t>planned_deployment_date</t>
+  </si>
+  <si>
+    <t>actual_ship_date</t>
+  </si>
+  <si>
+    <t>actual_delivery_date</t>
+  </si>
+  <si>
+    <t>delivery_qty</t>
+  </si>
+  <si>
+    <t>truck_type</t>
+  </si>
+  <si>
+    <t>truck_load_pct</t>
+  </si>
+  <si>
+    <t>WFR</t>
+  </si>
+  <si>
+    <t>VFR</t>
+  </si>
+  <si>
+    <t>20240106-PLANT_001-DC_001-LARGE-#1</t>
+  </si>
+  <si>
+    <t>20240106-PLANT_001-DC_001-LARGE-#2</t>
+  </si>
+  <si>
+    <t>20240106-PLANT_001-DC_002-MEDIUM-#1</t>
+  </si>
+  <si>
+    <t>20240106-PLANT_001-DC_002-MEDIUM-#2</t>
+  </si>
+  <si>
+    <t>MAT_A|PLANT_001|DC_001|2024-01-07|net demand for forecast|000106</t>
+  </si>
+  <si>
+    <t>MAT_A|PLANT_001|DC_001|2024-01-08|net demand for forecast|000107</t>
+  </si>
+  <si>
+    <t>MAT_A|PLANT_001|DC_001|2024-01-09|net demand for forecast|000108</t>
+  </si>
+  <si>
+    <t>MAT_A|PLANT_001|DC_001|2024-01-10|net demand for forecast|000109</t>
+  </si>
+  <si>
+    <t>MAT_A|PLANT_001|DC_002|2024-01-07|net demand for forecast|000110</t>
+  </si>
+  <si>
+    <t>MAT_A|PLANT_001|DC_002|2024-01-08|net demand for forecast|000111</t>
+  </si>
+  <si>
+    <t>MAT_A|PLANT_001|DC_002|2024-01-09|net demand for forecast|000112</t>
+  </si>
+  <si>
+    <t>MAT_A|PLANT_001|DC_002|2024-01-10|net demand for forecast|000113</t>
+  </si>
+  <si>
+    <t>MAT_A</t>
+  </si>
+  <si>
+    <t>PLANT_001</t>
+  </si>
+  <si>
+    <t>DC_001</t>
+  </si>
+  <si>
+    <t>DC_002</t>
+  </si>
+  <si>
+    <t>LARGE</t>
+  </si>
+  <si>
+    <t>MEDIUM</t>
+  </si>
   <si>
     <t>date</t>
   </si>
   <si>
-    <t>sending</t>
-  </si>
-  <si>
-    <t>receiving</t>
-  </si>
-  <si>
-    <t>truck_type</t>
-  </si>
-  <si>
     <t>vehicle_no</t>
   </si>
   <si>
-    <t>vehicle_uid</t>
-  </si>
-  <si>
     <t>total_units</t>
   </si>
   <si>
@@ -48,13 +129,10 @@
     <t>total_volume</t>
   </si>
   <si>
-    <t>WFR</t>
-  </si>
-  <si>
-    <t>VFR</t>
-  </si>
-  <si>
     <t>trigger</t>
+  </si>
+  <si>
+    <t>threshold</t>
   </si>
   <si>
     <t>truck_used</t>
@@ -112,6 +190,9 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <numFmts count="1">
+    <numFmt numFmtId="164" formatCode="YYYY-MM-DD HH:MM:SS"/>
+  </numFmts>
   <fonts count="2">
     <font>
       <sz val="11"/>
@@ -164,11 +245,12 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="2">
+  <cellXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
     </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -463,19 +545,471 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1"/>
+  <dimension ref="A1:M11"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
-  <sheetData/>
+  <sheetData>
+    <row r="1" spans="1:13">
+      <c r="A1" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="E1" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="F1" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="G1" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="H1" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="I1" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="J1" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="K1" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="L1" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="M1" s="1" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="2" spans="1:13">
+      <c r="A2" t="s">
+        <v>13</v>
+      </c>
+      <c r="B2" t="s">
+        <v>17</v>
+      </c>
+      <c r="C2" t="s">
+        <v>25</v>
+      </c>
+      <c r="D2" t="s">
+        <v>26</v>
+      </c>
+      <c r="E2" t="s">
+        <v>27</v>
+      </c>
+      <c r="F2" s="2">
+        <v>45298</v>
+      </c>
+      <c r="G2" s="2">
+        <v>45297</v>
+      </c>
+      <c r="H2" s="2">
+        <v>45299</v>
+      </c>
+      <c r="I2">
+        <v>39</v>
+      </c>
+      <c r="J2" t="s">
+        <v>29</v>
+      </c>
+      <c r="K2">
+        <v>1</v>
+      </c>
+      <c r="L2">
+        <v>1</v>
+      </c>
+      <c r="M2">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="3" spans="1:13">
+      <c r="A3" t="s">
+        <v>13</v>
+      </c>
+      <c r="B3" t="s">
+        <v>18</v>
+      </c>
+      <c r="C3" t="s">
+        <v>25</v>
+      </c>
+      <c r="D3" t="s">
+        <v>26</v>
+      </c>
+      <c r="E3" t="s">
+        <v>27</v>
+      </c>
+      <c r="F3" s="2">
+        <v>45299</v>
+      </c>
+      <c r="G3" s="2">
+        <v>45297</v>
+      </c>
+      <c r="H3" s="2">
+        <v>45299</v>
+      </c>
+      <c r="I3">
+        <v>39</v>
+      </c>
+      <c r="J3" t="s">
+        <v>29</v>
+      </c>
+      <c r="K3">
+        <v>1</v>
+      </c>
+      <c r="L3">
+        <v>1</v>
+      </c>
+      <c r="M3">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="4" spans="1:13">
+      <c r="A4" t="s">
+        <v>13</v>
+      </c>
+      <c r="B4" t="s">
+        <v>19</v>
+      </c>
+      <c r="C4" t="s">
+        <v>25</v>
+      </c>
+      <c r="D4" t="s">
+        <v>26</v>
+      </c>
+      <c r="E4" t="s">
+        <v>27</v>
+      </c>
+      <c r="F4" s="2">
+        <v>45300</v>
+      </c>
+      <c r="G4" s="2">
+        <v>45297</v>
+      </c>
+      <c r="H4" s="2">
+        <v>45299</v>
+      </c>
+      <c r="I4">
+        <v>22</v>
+      </c>
+      <c r="J4" t="s">
+        <v>29</v>
+      </c>
+      <c r="K4">
+        <v>1</v>
+      </c>
+      <c r="L4">
+        <v>1</v>
+      </c>
+      <c r="M4">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="5" spans="1:13">
+      <c r="A5" t="s">
+        <v>14</v>
+      </c>
+      <c r="B5" t="s">
+        <v>19</v>
+      </c>
+      <c r="C5" t="s">
+        <v>25</v>
+      </c>
+      <c r="D5" t="s">
+        <v>26</v>
+      </c>
+      <c r="E5" t="s">
+        <v>27</v>
+      </c>
+      <c r="F5" s="2">
+        <v>45300</v>
+      </c>
+      <c r="G5" s="2">
+        <v>45297</v>
+      </c>
+      <c r="H5" s="2">
+        <v>45299</v>
+      </c>
+      <c r="I5">
+        <v>17</v>
+      </c>
+      <c r="J5" t="s">
+        <v>29</v>
+      </c>
+      <c r="K5">
+        <v>0.5600000000000001</v>
+      </c>
+      <c r="L5">
+        <v>0.5600000000000001</v>
+      </c>
+      <c r="M5">
+        <v>0.5600000000000001</v>
+      </c>
+    </row>
+    <row r="6" spans="1:13">
+      <c r="A6" t="s">
+        <v>14</v>
+      </c>
+      <c r="B6" t="s">
+        <v>20</v>
+      </c>
+      <c r="C6" t="s">
+        <v>25</v>
+      </c>
+      <c r="D6" t="s">
+        <v>26</v>
+      </c>
+      <c r="E6" t="s">
+        <v>27</v>
+      </c>
+      <c r="F6" s="2">
+        <v>45301</v>
+      </c>
+      <c r="G6" s="2">
+        <v>45297</v>
+      </c>
+      <c r="H6" s="2">
+        <v>45299</v>
+      </c>
+      <c r="I6">
+        <v>39</v>
+      </c>
+      <c r="J6" t="s">
+        <v>29</v>
+      </c>
+      <c r="K6">
+        <v>0.5600000000000001</v>
+      </c>
+      <c r="L6">
+        <v>0.5600000000000001</v>
+      </c>
+      <c r="M6">
+        <v>0.5600000000000001</v>
+      </c>
+    </row>
+    <row r="7" spans="1:13">
+      <c r="A7" t="s">
+        <v>15</v>
+      </c>
+      <c r="B7" t="s">
+        <v>21</v>
+      </c>
+      <c r="C7" t="s">
+        <v>25</v>
+      </c>
+      <c r="D7" t="s">
+        <v>26</v>
+      </c>
+      <c r="E7" t="s">
+        <v>28</v>
+      </c>
+      <c r="F7" s="2">
+        <v>45298</v>
+      </c>
+      <c r="G7" s="2">
+        <v>45297</v>
+      </c>
+      <c r="H7" s="2">
+        <v>45299</v>
+      </c>
+      <c r="I7">
+        <v>39</v>
+      </c>
+      <c r="J7" t="s">
+        <v>30</v>
+      </c>
+      <c r="K7">
+        <v>1</v>
+      </c>
+      <c r="L7">
+        <v>1</v>
+      </c>
+      <c r="M7">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="8" spans="1:13">
+      <c r="A8" t="s">
+        <v>15</v>
+      </c>
+      <c r="B8" t="s">
+        <v>22</v>
+      </c>
+      <c r="C8" t="s">
+        <v>25</v>
+      </c>
+      <c r="D8" t="s">
+        <v>26</v>
+      </c>
+      <c r="E8" t="s">
+        <v>28</v>
+      </c>
+      <c r="F8" s="2">
+        <v>45299</v>
+      </c>
+      <c r="G8" s="2">
+        <v>45297</v>
+      </c>
+      <c r="H8" s="2">
+        <v>45299</v>
+      </c>
+      <c r="I8">
+        <v>21</v>
+      </c>
+      <c r="J8" t="s">
+        <v>30</v>
+      </c>
+      <c r="K8">
+        <v>1</v>
+      </c>
+      <c r="L8">
+        <v>1</v>
+      </c>
+      <c r="M8">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="9" spans="1:13">
+      <c r="A9" t="s">
+        <v>16</v>
+      </c>
+      <c r="B9" t="s">
+        <v>22</v>
+      </c>
+      <c r="C9" t="s">
+        <v>25</v>
+      </c>
+      <c r="D9" t="s">
+        <v>26</v>
+      </c>
+      <c r="E9" t="s">
+        <v>28</v>
+      </c>
+      <c r="F9" s="2">
+        <v>45299</v>
+      </c>
+      <c r="G9" s="2">
+        <v>45297</v>
+      </c>
+      <c r="H9" s="2">
+        <v>45299</v>
+      </c>
+      <c r="I9">
+        <v>18</v>
+      </c>
+      <c r="J9" t="s">
+        <v>30</v>
+      </c>
+      <c r="K9">
+        <v>1</v>
+      </c>
+      <c r="L9">
+        <v>1</v>
+      </c>
+      <c r="M9">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="10" spans="1:13">
+      <c r="A10" t="s">
+        <v>16</v>
+      </c>
+      <c r="B10" t="s">
+        <v>23</v>
+      </c>
+      <c r="C10" t="s">
+        <v>25</v>
+      </c>
+      <c r="D10" t="s">
+        <v>26</v>
+      </c>
+      <c r="E10" t="s">
+        <v>28</v>
+      </c>
+      <c r="F10" s="2">
+        <v>45300</v>
+      </c>
+      <c r="G10" s="2">
+        <v>45297</v>
+      </c>
+      <c r="H10" s="2">
+        <v>45299</v>
+      </c>
+      <c r="I10">
+        <v>39</v>
+      </c>
+      <c r="J10" t="s">
+        <v>30</v>
+      </c>
+      <c r="K10">
+        <v>1</v>
+      </c>
+      <c r="L10">
+        <v>1</v>
+      </c>
+      <c r="M10">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="11" spans="1:13">
+      <c r="A11" t="s">
+        <v>16</v>
+      </c>
+      <c r="B11" t="s">
+        <v>24</v>
+      </c>
+      <c r="C11" t="s">
+        <v>25</v>
+      </c>
+      <c r="D11" t="s">
+        <v>26</v>
+      </c>
+      <c r="E11" t="s">
+        <v>28</v>
+      </c>
+      <c r="F11" s="2">
+        <v>45301</v>
+      </c>
+      <c r="G11" s="2">
+        <v>45297</v>
+      </c>
+      <c r="H11" s="2">
+        <v>45300</v>
+      </c>
+      <c r="I11">
+        <v>3</v>
+      </c>
+      <c r="J11" t="s">
+        <v>30</v>
+      </c>
+      <c r="K11">
+        <v>1</v>
+      </c>
+      <c r="L11">
+        <v>1</v>
+      </c>
+      <c r="M11">
+        <v>1</v>
+      </c>
+    </row>
+  </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:L1"/>
+  <dimension ref="A1:L5"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -483,40 +1017,192 @@
   <sheetData>
     <row r="1" spans="1:12">
       <c r="A1" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="E1" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="F1" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="1" t="s">
-        <v>1</v>
-      </c>
-      <c r="C1" s="1" t="s">
+      <c r="G1" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="H1" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="I1" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="J1" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="K1" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="L1" s="1" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="2" spans="1:12">
+      <c r="A2" s="2">
+        <v>45297</v>
+      </c>
+      <c r="B2" t="s">
+        <v>26</v>
+      </c>
+      <c r="C2" t="s">
+        <v>27</v>
+      </c>
+      <c r="D2" t="s">
+        <v>29</v>
+      </c>
+      <c r="E2">
+        <v>1</v>
+      </c>
+      <c r="F2" t="s">
+        <v>13</v>
+      </c>
+      <c r="G2">
+        <v>100</v>
+      </c>
+      <c r="H2">
+        <v>100</v>
+      </c>
+      <c r="I2">
+        <v>200</v>
+      </c>
+      <c r="J2">
+        <v>1</v>
+      </c>
+      <c r="K2">
+        <v>1</v>
+      </c>
+      <c r="L2" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="3" spans="1:12">
+      <c r="A3" s="2">
+        <v>45297</v>
+      </c>
+      <c r="B3" t="s">
+        <v>26</v>
+      </c>
+      <c r="C3" t="s">
+        <v>27</v>
+      </c>
+      <c r="D3" t="s">
+        <v>29</v>
+      </c>
+      <c r="E3">
         <v>2</v>
       </c>
-      <c r="D1" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="E1" s="1" t="s">
-        <v>4</v>
-      </c>
-      <c r="F1" s="1" t="s">
-        <v>5</v>
-      </c>
-      <c r="G1" s="1" t="s">
-        <v>6</v>
-      </c>
-      <c r="H1" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="I1" s="1" t="s">
-        <v>8</v>
-      </c>
-      <c r="J1" s="1" t="s">
-        <v>9</v>
-      </c>
-      <c r="K1" s="1" t="s">
-        <v>10</v>
-      </c>
-      <c r="L1" s="1" t="s">
-        <v>11</v>
+      <c r="F3" t="s">
+        <v>14</v>
+      </c>
+      <c r="G3">
+        <v>56</v>
+      </c>
+      <c r="H3">
+        <v>56</v>
+      </c>
+      <c r="I3">
+        <v>112</v>
+      </c>
+      <c r="J3">
+        <v>0.5600000000000001</v>
+      </c>
+      <c r="K3">
+        <v>0.5600000000000001</v>
+      </c>
+      <c r="L3" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="4" spans="1:12">
+      <c r="A4" s="2">
+        <v>45297</v>
+      </c>
+      <c r="B4" t="s">
+        <v>26</v>
+      </c>
+      <c r="C4" t="s">
+        <v>28</v>
+      </c>
+      <c r="D4" t="s">
+        <v>30</v>
+      </c>
+      <c r="E4">
+        <v>1</v>
+      </c>
+      <c r="F4" t="s">
+        <v>15</v>
+      </c>
+      <c r="G4">
+        <v>60</v>
+      </c>
+      <c r="H4">
+        <v>60</v>
+      </c>
+      <c r="I4">
+        <v>120</v>
+      </c>
+      <c r="J4">
+        <v>1</v>
+      </c>
+      <c r="K4">
+        <v>1</v>
+      </c>
+      <c r="L4" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="5" spans="1:12">
+      <c r="A5" s="2">
+        <v>45297</v>
+      </c>
+      <c r="B5" t="s">
+        <v>26</v>
+      </c>
+      <c r="C5" t="s">
+        <v>28</v>
+      </c>
+      <c r="D5" t="s">
+        <v>30</v>
+      </c>
+      <c r="E5">
+        <v>2</v>
+      </c>
+      <c r="F5" t="s">
+        <v>16</v>
+      </c>
+      <c r="G5">
+        <v>60</v>
+      </c>
+      <c r="H5">
+        <v>60</v>
+      </c>
+      <c r="I5">
+        <v>120</v>
+      </c>
+      <c r="J5">
+        <v>1</v>
+      </c>
+      <c r="K5">
+        <v>1</v>
+      </c>
+      <c r="L5" t="s">
+        <v>37</v>
       </c>
     </row>
   </sheetData>
@@ -526,7 +1212,7 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:E1"/>
+  <dimension ref="A1:E3"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -534,19 +1220,53 @@
   <sheetData>
     <row r="1" spans="1:5">
       <c r="A1" s="1" t="s">
-        <v>0</v>
+        <v>31</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="C1" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="E1" s="1" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="2" spans="1:5">
+      <c r="A2" s="2">
+        <v>45297</v>
+      </c>
+      <c r="B2" t="s">
+        <v>26</v>
+      </c>
+      <c r="C2" t="s">
+        <v>27</v>
+      </c>
+      <c r="D2" t="s">
+        <v>29</v>
+      </c>
+      <c r="E2">
         <v>2</v>
       </c>
-      <c r="D1" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="E1" s="1" t="s">
-        <v>12</v>
+    </row>
+    <row r="3" spans="1:5">
+      <c r="A3" s="2">
+        <v>45297</v>
+      </c>
+      <c r="B3" t="s">
+        <v>26</v>
+      </c>
+      <c r="C3" t="s">
+        <v>28</v>
+      </c>
+      <c r="D3" t="s">
+        <v>30</v>
+      </c>
+      <c r="E3">
+        <v>2</v>
       </c>
     </row>
   </sheetData>
@@ -576,74 +1296,74 @@
   <sheetData>
     <row r="1" spans="1:8">
       <c r="A1" s="1" t="s">
-        <v>13</v>
+        <v>39</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>14</v>
+        <v>40</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>15</v>
+        <v>41</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>16</v>
+        <v>42</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>17</v>
+        <v>43</v>
       </c>
       <c r="F1" s="1" t="s">
-        <v>18</v>
+        <v>44</v>
       </c>
       <c r="G1" s="1" t="s">
-        <v>19</v>
+        <v>45</v>
       </c>
       <c r="H1" s="1" t="s">
-        <v>20</v>
+        <v>46</v>
       </c>
     </row>
     <row r="2" spans="1:8">
       <c r="A2" t="s">
-        <v>21</v>
+        <v>47</v>
       </c>
       <c r="C2" t="s">
-        <v>22</v>
+        <v>48</v>
       </c>
       <c r="D2" t="s">
-        <v>24</v>
+        <v>50</v>
       </c>
       <c r="E2" t="s">
-        <v>25</v>
+        <v>51</v>
       </c>
       <c r="F2" t="s">
-        <v>26</v>
+        <v>52</v>
       </c>
       <c r="G2">
         <v>1</v>
       </c>
       <c r="H2" t="s">
-        <v>28</v>
+        <v>54</v>
       </c>
     </row>
     <row r="3" spans="1:8">
       <c r="A3" t="s">
-        <v>21</v>
+        <v>47</v>
       </c>
       <c r="C3" t="s">
-        <v>23</v>
+        <v>49</v>
       </c>
       <c r="D3" t="s">
-        <v>24</v>
+        <v>50</v>
       </c>
       <c r="E3" t="s">
-        <v>25</v>
+        <v>51</v>
       </c>
       <c r="F3" t="s">
-        <v>27</v>
+        <v>53</v>
       </c>
       <c r="G3">
         <v>1</v>
       </c>
       <c r="H3" t="s">
-        <v>28</v>
+        <v>54</v>
       </c>
     </row>
   </sheetData>

--- a/e2e_test_output_12week_forecast_test/simulation_output/module6/Module6Output_20240106.xlsx
+++ b/e2e_test_output_12week_forecast_test/simulation_output/module6/Module6Output_20240106.xlsx
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="136" uniqueCount="55">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="143" uniqueCount="58">
   <si>
     <t>vehicle_uid</t>
   </si>
@@ -69,31 +69,40 @@
     <t>20240106-PLANT_001-DC_002-MEDIUM-#1</t>
   </si>
   <si>
-    <t>20240106-PLANT_001-DC_002-MEDIUM-#2</t>
+    <t>MAT_B|PLANT_001|DC_001|2024-01-07|net demand for forecast|000097</t>
   </si>
   <si>
     <t>MAT_A|PLANT_001|DC_001|2024-01-07|net demand for forecast|000106</t>
   </si>
   <si>
+    <t>MAT_B|PLANT_001|DC_001|2024-01-08|net demand for forecast|000098</t>
+  </si>
+  <si>
     <t>MAT_A|PLANT_001|DC_001|2024-01-08|net demand for forecast|000107</t>
   </si>
   <si>
+    <t>MAT_B|PLANT_001|DC_001|2024-01-09|net demand for forecast|000099</t>
+  </si>
+  <si>
     <t>MAT_A|PLANT_001|DC_001|2024-01-09|net demand for forecast|000108</t>
   </si>
   <si>
+    <t>MAT_B|PLANT_001|DC_001|2024-01-10|net demand for forecast|000100</t>
+  </si>
+  <si>
     <t>MAT_A|PLANT_001|DC_001|2024-01-10|net demand for forecast|000109</t>
   </si>
   <si>
-    <t>MAT_A|PLANT_001|DC_002|2024-01-07|net demand for forecast|000110</t>
-  </si>
-  <si>
-    <t>MAT_A|PLANT_001|DC_002|2024-01-08|net demand for forecast|000111</t>
-  </si>
-  <si>
-    <t>MAT_A|PLANT_001|DC_002|2024-01-09|net demand for forecast|000112</t>
-  </si>
-  <si>
-    <t>MAT_A|PLANT_001|DC_002|2024-01-10|net demand for forecast|000113</t>
+    <t>MAT_A|PLANT_001|DC_002|2024-01-07|net demand for forecast|000102</t>
+  </si>
+  <si>
+    <t>MAT_A|PLANT_001|DC_002|2024-01-08|net demand for forecast|000103</t>
+  </si>
+  <si>
+    <t>MAT_A|PLANT_001|DC_002|2024-01-09|net demand for forecast|000091</t>
+  </si>
+  <si>
+    <t>MAT_B</t>
   </si>
   <si>
     <t>MAT_A</t>
@@ -545,7 +554,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:M11"/>
+  <dimension ref="A1:M13"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -597,16 +606,16 @@
         <v>13</v>
       </c>
       <c r="B2" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="C2" t="s">
-        <v>25</v>
+        <v>27</v>
       </c>
       <c r="D2" t="s">
-        <v>26</v>
+        <v>29</v>
       </c>
       <c r="E2" t="s">
-        <v>27</v>
+        <v>30</v>
       </c>
       <c r="F2" s="2">
         <v>45298</v>
@@ -618,19 +627,19 @@
         <v>45299</v>
       </c>
       <c r="I2">
-        <v>39</v>
+        <v>15</v>
       </c>
       <c r="J2" t="s">
-        <v>29</v>
+        <v>32</v>
       </c>
       <c r="K2">
-        <v>1</v>
+        <v>0.9940000000000001</v>
       </c>
       <c r="L2">
-        <v>1</v>
+        <v>0.9940000000000001</v>
       </c>
       <c r="M2">
-        <v>1</v>
+        <v>0.9675</v>
       </c>
     </row>
     <row r="3" spans="1:13">
@@ -638,19 +647,19 @@
         <v>13</v>
       </c>
       <c r="B3" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="C3" t="s">
-        <v>25</v>
+        <v>28</v>
       </c>
       <c r="D3" t="s">
-        <v>26</v>
+        <v>29</v>
       </c>
       <c r="E3" t="s">
-        <v>27</v>
+        <v>30</v>
       </c>
       <c r="F3" s="2">
-        <v>45299</v>
+        <v>45298</v>
       </c>
       <c r="G3" s="2">
         <v>45297</v>
@@ -659,19 +668,19 @@
         <v>45299</v>
       </c>
       <c r="I3">
-        <v>39</v>
+        <v>19</v>
       </c>
       <c r="J3" t="s">
-        <v>29</v>
+        <v>32</v>
       </c>
       <c r="K3">
-        <v>1</v>
+        <v>0.9940000000000001</v>
       </c>
       <c r="L3">
-        <v>1</v>
+        <v>0.9940000000000001</v>
       </c>
       <c r="M3">
-        <v>1</v>
+        <v>0.9675</v>
       </c>
     </row>
     <row r="4" spans="1:13">
@@ -679,19 +688,19 @@
         <v>13</v>
       </c>
       <c r="B4" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="C4" t="s">
-        <v>25</v>
+        <v>27</v>
       </c>
       <c r="D4" t="s">
-        <v>26</v>
+        <v>29</v>
       </c>
       <c r="E4" t="s">
-        <v>27</v>
+        <v>30</v>
       </c>
       <c r="F4" s="2">
-        <v>45300</v>
+        <v>45299</v>
       </c>
       <c r="G4" s="2">
         <v>45297</v>
@@ -700,39 +709,39 @@
         <v>45299</v>
       </c>
       <c r="I4">
-        <v>22</v>
+        <v>15</v>
       </c>
       <c r="J4" t="s">
-        <v>29</v>
+        <v>32</v>
       </c>
       <c r="K4">
-        <v>1</v>
+        <v>0.9940000000000001</v>
       </c>
       <c r="L4">
-        <v>1</v>
+        <v>0.9940000000000001</v>
       </c>
       <c r="M4">
-        <v>1</v>
+        <v>0.9675</v>
       </c>
     </row>
     <row r="5" spans="1:13">
       <c r="A5" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="B5" t="s">
         <v>19</v>
       </c>
       <c r="C5" t="s">
-        <v>25</v>
+        <v>28</v>
       </c>
       <c r="D5" t="s">
-        <v>26</v>
+        <v>29</v>
       </c>
       <c r="E5" t="s">
-        <v>27</v>
+        <v>30</v>
       </c>
       <c r="F5" s="2">
-        <v>45300</v>
+        <v>45299</v>
       </c>
       <c r="G5" s="2">
         <v>45297</v>
@@ -741,39 +750,39 @@
         <v>45299</v>
       </c>
       <c r="I5">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="J5" t="s">
-        <v>29</v>
+        <v>32</v>
       </c>
       <c r="K5">
-        <v>0.5600000000000001</v>
+        <v>0.9940000000000001</v>
       </c>
       <c r="L5">
-        <v>0.5600000000000001</v>
+        <v>0.9940000000000001</v>
       </c>
       <c r="M5">
-        <v>0.5600000000000001</v>
+        <v>0.9675</v>
       </c>
     </row>
     <row r="6" spans="1:13">
       <c r="A6" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="B6" t="s">
         <v>20</v>
       </c>
       <c r="C6" t="s">
-        <v>25</v>
+        <v>27</v>
       </c>
       <c r="D6" t="s">
-        <v>26</v>
+        <v>29</v>
       </c>
       <c r="E6" t="s">
-        <v>27</v>
+        <v>30</v>
       </c>
       <c r="F6" s="2">
-        <v>45301</v>
+        <v>45300</v>
       </c>
       <c r="G6" s="2">
         <v>45297</v>
@@ -782,39 +791,39 @@
         <v>45299</v>
       </c>
       <c r="I6">
-        <v>39</v>
+        <v>15</v>
       </c>
       <c r="J6" t="s">
-        <v>29</v>
+        <v>32</v>
       </c>
       <c r="K6">
-        <v>0.5600000000000001</v>
+        <v>0.9940000000000001</v>
       </c>
       <c r="L6">
-        <v>0.5600000000000001</v>
+        <v>0.9940000000000001</v>
       </c>
       <c r="M6">
-        <v>0.5600000000000001</v>
+        <v>0.9675</v>
       </c>
     </row>
     <row r="7" spans="1:13">
       <c r="A7" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="B7" t="s">
         <v>21</v>
       </c>
       <c r="C7" t="s">
-        <v>25</v>
+        <v>28</v>
       </c>
       <c r="D7" t="s">
-        <v>26</v>
+        <v>29</v>
       </c>
       <c r="E7" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="F7" s="2">
-        <v>45298</v>
+        <v>45300</v>
       </c>
       <c r="G7" s="2">
         <v>45297</v>
@@ -823,39 +832,39 @@
         <v>45299</v>
       </c>
       <c r="I7">
-        <v>39</v>
+        <v>19</v>
       </c>
       <c r="J7" t="s">
-        <v>30</v>
+        <v>32</v>
       </c>
       <c r="K7">
-        <v>1</v>
+        <v>0.9940000000000001</v>
       </c>
       <c r="L7">
-        <v>1</v>
+        <v>0.9940000000000001</v>
       </c>
       <c r="M7">
-        <v>1</v>
+        <v>0.9675</v>
       </c>
     </row>
     <row r="8" spans="1:13">
       <c r="A8" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="B8" t="s">
         <v>22</v>
       </c>
       <c r="C8" t="s">
-        <v>25</v>
+        <v>27</v>
       </c>
       <c r="D8" t="s">
-        <v>26</v>
+        <v>29</v>
       </c>
       <c r="E8" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="F8" s="2">
-        <v>45299</v>
+        <v>45301</v>
       </c>
       <c r="G8" s="2">
         <v>45297</v>
@@ -864,39 +873,39 @@
         <v>45299</v>
       </c>
       <c r="I8">
-        <v>21</v>
+        <v>8</v>
       </c>
       <c r="J8" t="s">
-        <v>30</v>
+        <v>32</v>
       </c>
       <c r="K8">
-        <v>1</v>
+        <v>0.9940000000000001</v>
       </c>
       <c r="L8">
-        <v>1</v>
+        <v>0.9940000000000001</v>
       </c>
       <c r="M8">
-        <v>1</v>
+        <v>0.9675</v>
       </c>
     </row>
     <row r="9" spans="1:13">
       <c r="A9" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="B9" t="s">
         <v>22</v>
       </c>
       <c r="C9" t="s">
-        <v>25</v>
+        <v>27</v>
       </c>
       <c r="D9" t="s">
-        <v>26</v>
+        <v>29</v>
       </c>
       <c r="E9" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="F9" s="2">
-        <v>45299</v>
+        <v>45301</v>
       </c>
       <c r="G9" s="2">
         <v>45297</v>
@@ -905,39 +914,39 @@
         <v>45299</v>
       </c>
       <c r="I9">
-        <v>18</v>
+        <v>7</v>
       </c>
       <c r="J9" t="s">
-        <v>30</v>
+        <v>32</v>
       </c>
       <c r="K9">
-        <v>1</v>
+        <v>0.246</v>
       </c>
       <c r="L9">
-        <v>1</v>
+        <v>0.246</v>
       </c>
       <c r="M9">
-        <v>1</v>
+        <v>0.2425</v>
       </c>
     </row>
     <row r="10" spans="1:13">
       <c r="A10" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="B10" t="s">
         <v>23</v>
       </c>
       <c r="C10" t="s">
-        <v>25</v>
+        <v>28</v>
       </c>
       <c r="D10" t="s">
-        <v>26</v>
+        <v>29</v>
       </c>
       <c r="E10" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="F10" s="2">
-        <v>45300</v>
+        <v>45301</v>
       </c>
       <c r="G10" s="2">
         <v>45297</v>
@@ -946,39 +955,39 @@
         <v>45299</v>
       </c>
       <c r="I10">
-        <v>39</v>
+        <v>19</v>
       </c>
       <c r="J10" t="s">
-        <v>30</v>
+        <v>32</v>
       </c>
       <c r="K10">
-        <v>1</v>
+        <v>0.246</v>
       </c>
       <c r="L10">
-        <v>1</v>
+        <v>0.246</v>
       </c>
       <c r="M10">
-        <v>1</v>
+        <v>0.2425</v>
       </c>
     </row>
     <row r="11" spans="1:13">
       <c r="A11" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="B11" t="s">
         <v>24</v>
       </c>
       <c r="C11" t="s">
-        <v>25</v>
+        <v>28</v>
       </c>
       <c r="D11" t="s">
-        <v>26</v>
+        <v>29</v>
       </c>
       <c r="E11" t="s">
-        <v>28</v>
+        <v>31</v>
       </c>
       <c r="F11" s="2">
-        <v>45301</v>
+        <v>45298</v>
       </c>
       <c r="G11" s="2">
         <v>45297</v>
@@ -987,10 +996,10 @@
         <v>45300</v>
       </c>
       <c r="I11">
-        <v>3</v>
+        <v>19</v>
       </c>
       <c r="J11" t="s">
-        <v>30</v>
+        <v>33</v>
       </c>
       <c r="K11">
         <v>1</v>
@@ -999,6 +1008,88 @@
         <v>1</v>
       </c>
       <c r="M11">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="12" spans="1:13">
+      <c r="A12" t="s">
+        <v>15</v>
+      </c>
+      <c r="B12" t="s">
+        <v>25</v>
+      </c>
+      <c r="C12" t="s">
+        <v>28</v>
+      </c>
+      <c r="D12" t="s">
+        <v>29</v>
+      </c>
+      <c r="E12" t="s">
+        <v>31</v>
+      </c>
+      <c r="F12" s="2">
+        <v>45299</v>
+      </c>
+      <c r="G12" s="2">
+        <v>45297</v>
+      </c>
+      <c r="H12" s="2">
+        <v>45299</v>
+      </c>
+      <c r="I12">
+        <v>19</v>
+      </c>
+      <c r="J12" t="s">
+        <v>33</v>
+      </c>
+      <c r="K12">
+        <v>1</v>
+      </c>
+      <c r="L12">
+        <v>1</v>
+      </c>
+      <c r="M12">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="13" spans="1:13">
+      <c r="A13" t="s">
+        <v>15</v>
+      </c>
+      <c r="B13" t="s">
+        <v>26</v>
+      </c>
+      <c r="C13" t="s">
+        <v>28</v>
+      </c>
+      <c r="D13" t="s">
+        <v>29</v>
+      </c>
+      <c r="E13" t="s">
+        <v>31</v>
+      </c>
+      <c r="F13" s="2">
+        <v>45300</v>
+      </c>
+      <c r="G13" s="2">
+        <v>45297</v>
+      </c>
+      <c r="H13" s="2">
+        <v>45299</v>
+      </c>
+      <c r="I13">
+        <v>22</v>
+      </c>
+      <c r="J13" t="s">
+        <v>33</v>
+      </c>
+      <c r="K13">
+        <v>1</v>
+      </c>
+      <c r="L13">
+        <v>1</v>
+      </c>
+      <c r="M13">
         <v>1</v>
       </c>
     </row>
@@ -1009,7 +1100,7 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:L5"/>
+  <dimension ref="A1:L4"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -1017,7 +1108,7 @@
   <sheetData>
     <row r="1" spans="1:12">
       <c r="A1" s="1" t="s">
-        <v>31</v>
+        <v>34</v>
       </c>
       <c r="B1" s="1" t="s">
         <v>3</v>
@@ -1029,19 +1120,19 @@
         <v>9</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>32</v>
+        <v>35</v>
       </c>
       <c r="F1" s="1" t="s">
         <v>0</v>
       </c>
       <c r="G1" s="1" t="s">
-        <v>33</v>
+        <v>36</v>
       </c>
       <c r="H1" s="1" t="s">
-        <v>34</v>
+        <v>37</v>
       </c>
       <c r="I1" s="1" t="s">
-        <v>35</v>
+        <v>38</v>
       </c>
       <c r="J1" s="1" t="s">
         <v>11</v>
@@ -1050,7 +1141,7 @@
         <v>12</v>
       </c>
       <c r="L1" s="1" t="s">
-        <v>36</v>
+        <v>39</v>
       </c>
     </row>
     <row r="2" spans="1:12">
@@ -1058,13 +1149,13 @@
         <v>45297</v>
       </c>
       <c r="B2" t="s">
-        <v>26</v>
+        <v>29</v>
       </c>
       <c r="C2" t="s">
-        <v>27</v>
+        <v>30</v>
       </c>
       <c r="D2" t="s">
-        <v>29</v>
+        <v>32</v>
       </c>
       <c r="E2">
         <v>1</v>
@@ -1073,22 +1164,22 @@
         <v>13</v>
       </c>
       <c r="G2">
-        <v>100</v>
+        <v>110</v>
       </c>
       <c r="H2">
-        <v>100</v>
+        <v>99.40000000000001</v>
       </c>
       <c r="I2">
-        <v>200</v>
+        <v>193.5</v>
       </c>
       <c r="J2">
-        <v>1</v>
+        <v>0.9940000000000001</v>
       </c>
       <c r="K2">
-        <v>1</v>
+        <v>0.9675</v>
       </c>
       <c r="L2" t="s">
-        <v>37</v>
+        <v>40</v>
       </c>
     </row>
     <row r="3" spans="1:12">
@@ -1096,13 +1187,13 @@
         <v>45297</v>
       </c>
       <c r="B3" t="s">
-        <v>26</v>
+        <v>29</v>
       </c>
       <c r="C3" t="s">
-        <v>27</v>
+        <v>30</v>
       </c>
       <c r="D3" t="s">
-        <v>29</v>
+        <v>32</v>
       </c>
       <c r="E3">
         <v>2</v>
@@ -1111,22 +1202,22 @@
         <v>14</v>
       </c>
       <c r="G3">
-        <v>56</v>
+        <v>26</v>
       </c>
       <c r="H3">
-        <v>56</v>
+        <v>24.6</v>
       </c>
       <c r="I3">
-        <v>112</v>
+        <v>48.5</v>
       </c>
       <c r="J3">
-        <v>0.5600000000000001</v>
+        <v>0.246</v>
       </c>
       <c r="K3">
-        <v>0.5600000000000001</v>
+        <v>0.2425</v>
       </c>
       <c r="L3" t="s">
-        <v>37</v>
+        <v>40</v>
       </c>
     </row>
     <row r="4" spans="1:12">
@@ -1134,13 +1225,13 @@
         <v>45297</v>
       </c>
       <c r="B4" t="s">
-        <v>26</v>
+        <v>29</v>
       </c>
       <c r="C4" t="s">
-        <v>28</v>
+        <v>31</v>
       </c>
       <c r="D4" t="s">
-        <v>30</v>
+        <v>33</v>
       </c>
       <c r="E4">
         <v>1</v>
@@ -1164,45 +1255,7 @@
         <v>1</v>
       </c>
       <c r="L4" t="s">
-        <v>37</v>
-      </c>
-    </row>
-    <row r="5" spans="1:12">
-      <c r="A5" s="2">
-        <v>45297</v>
-      </c>
-      <c r="B5" t="s">
-        <v>26</v>
-      </c>
-      <c r="C5" t="s">
-        <v>28</v>
-      </c>
-      <c r="D5" t="s">
-        <v>30</v>
-      </c>
-      <c r="E5">
-        <v>2</v>
-      </c>
-      <c r="F5" t="s">
-        <v>16</v>
-      </c>
-      <c r="G5">
-        <v>60</v>
-      </c>
-      <c r="H5">
-        <v>60</v>
-      </c>
-      <c r="I5">
-        <v>120</v>
-      </c>
-      <c r="J5">
-        <v>1</v>
-      </c>
-      <c r="K5">
-        <v>1</v>
-      </c>
-      <c r="L5" t="s">
-        <v>37</v>
+        <v>40</v>
       </c>
     </row>
   </sheetData>
@@ -1220,7 +1273,7 @@
   <sheetData>
     <row r="1" spans="1:5">
       <c r="A1" s="1" t="s">
-        <v>31</v>
+        <v>34</v>
       </c>
       <c r="B1" s="1" t="s">
         <v>3</v>
@@ -1232,7 +1285,7 @@
         <v>9</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>38</v>
+        <v>41</v>
       </c>
     </row>
     <row r="2" spans="1:5">
@@ -1240,13 +1293,13 @@
         <v>45297</v>
       </c>
       <c r="B2" t="s">
-        <v>26</v>
+        <v>29</v>
       </c>
       <c r="C2" t="s">
-        <v>27</v>
+        <v>30</v>
       </c>
       <c r="D2" t="s">
-        <v>29</v>
+        <v>32</v>
       </c>
       <c r="E2">
         <v>2</v>
@@ -1257,16 +1310,16 @@
         <v>45297</v>
       </c>
       <c r="B3" t="s">
-        <v>26</v>
+        <v>29</v>
       </c>
       <c r="C3" t="s">
-        <v>28</v>
+        <v>31</v>
       </c>
       <c r="D3" t="s">
-        <v>30</v>
+        <v>33</v>
       </c>
       <c r="E3">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
   </sheetData>
@@ -1296,74 +1349,74 @@
   <sheetData>
     <row r="1" spans="1:8">
       <c r="A1" s="1" t="s">
-        <v>39</v>
+        <v>42</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>40</v>
+        <v>43</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>41</v>
+        <v>44</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>42</v>
+        <v>45</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>43</v>
+        <v>46</v>
       </c>
       <c r="F1" s="1" t="s">
-        <v>44</v>
+        <v>47</v>
       </c>
       <c r="G1" s="1" t="s">
-        <v>45</v>
+        <v>48</v>
       </c>
       <c r="H1" s="1" t="s">
-        <v>46</v>
+        <v>49</v>
       </c>
     </row>
     <row r="2" spans="1:8">
       <c r="A2" t="s">
-        <v>47</v>
+        <v>50</v>
       </c>
       <c r="C2" t="s">
-        <v>48</v>
+        <v>51</v>
       </c>
       <c r="D2" t="s">
-        <v>50</v>
+        <v>53</v>
       </c>
       <c r="E2" t="s">
-        <v>51</v>
+        <v>54</v>
       </c>
       <c r="F2" t="s">
-        <v>52</v>
+        <v>55</v>
       </c>
       <c r="G2">
         <v>1</v>
       </c>
       <c r="H2" t="s">
-        <v>54</v>
+        <v>57</v>
       </c>
     </row>
     <row r="3" spans="1:8">
       <c r="A3" t="s">
-        <v>47</v>
+        <v>50</v>
       </c>
       <c r="C3" t="s">
-        <v>49</v>
+        <v>52</v>
       </c>
       <c r="D3" t="s">
-        <v>50</v>
+        <v>53</v>
       </c>
       <c r="E3" t="s">
-        <v>51</v>
+        <v>54</v>
       </c>
       <c r="F3" t="s">
-        <v>53</v>
+        <v>56</v>
       </c>
       <c r="G3">
         <v>1</v>
       </c>
       <c r="H3" t="s">
-        <v>54</v>
+        <v>57</v>
       </c>
     </row>
   </sheetData>

--- a/e2e_test_output_12week_forecast_test/simulation_output/module6/Module6Output_20240106.xlsx
+++ b/e2e_test_output_12week_forecast_test/simulation_output/module6/Module6Output_20240106.xlsx
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="143" uniqueCount="58">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="155" uniqueCount="60">
   <si>
     <t>vehicle_uid</t>
   </si>
@@ -63,43 +63,49 @@
     <t>20240106-PLANT_001-DC_001-LARGE-#1</t>
   </si>
   <si>
-    <t>20240106-PLANT_001-DC_001-LARGE-#2</t>
-  </si>
-  <si>
     <t>20240106-PLANT_001-DC_002-MEDIUM-#1</t>
   </si>
   <si>
-    <t>MAT_B|PLANT_001|DC_001|2024-01-07|net demand for forecast|000097</t>
-  </si>
-  <si>
-    <t>MAT_A|PLANT_001|DC_001|2024-01-07|net demand for forecast|000106</t>
-  </si>
-  <si>
-    <t>MAT_B|PLANT_001|DC_001|2024-01-08|net demand for forecast|000098</t>
-  </si>
-  <si>
-    <t>MAT_A|PLANT_001|DC_001|2024-01-08|net demand for forecast|000107</t>
-  </si>
-  <si>
-    <t>MAT_B|PLANT_001|DC_001|2024-01-09|net demand for forecast|000099</t>
-  </si>
-  <si>
-    <t>MAT_A|PLANT_001|DC_001|2024-01-09|net demand for forecast|000108</t>
-  </si>
-  <si>
-    <t>MAT_B|PLANT_001|DC_001|2024-01-10|net demand for forecast|000100</t>
-  </si>
-  <si>
-    <t>MAT_A|PLANT_001|DC_001|2024-01-10|net demand for forecast|000109</t>
-  </si>
-  <si>
-    <t>MAT_A|PLANT_001|DC_002|2024-01-07|net demand for forecast|000102</t>
-  </si>
-  <si>
-    <t>MAT_A|PLANT_001|DC_002|2024-01-08|net demand for forecast|000103</t>
-  </si>
-  <si>
-    <t>MAT_A|PLANT_001|DC_002|2024-01-09|net demand for forecast|000091</t>
+    <t>20240106-PLANT_001-DC_002-MEDIUM-#2</t>
+  </si>
+  <si>
+    <t>MAT_B|PLANT_001|DC_001|2024-01-07|net demand for forecast|000122</t>
+  </si>
+  <si>
+    <t>MAT_A|PLANT_001|DC_001|2024-01-07|net demand for forecast|000138</t>
+  </si>
+  <si>
+    <t>MAT_B|PLANT_001|DC_001|2024-01-08|net demand for forecast|000123</t>
+  </si>
+  <si>
+    <t>MAT_A|PLANT_001|DC_001|2024-01-08|net demand for forecast|000139</t>
+  </si>
+  <si>
+    <t>MAT_B|PLANT_001|DC_001|2024-01-09|net demand for forecast|000124</t>
+  </si>
+  <si>
+    <t>MAT_A|PLANT_001|DC_001|2024-01-09|net demand for forecast|000140</t>
+  </si>
+  <si>
+    <t>MAT_B|PLANT_001|DC_001|2024-01-10|net demand for forecast|000125</t>
+  </si>
+  <si>
+    <t>MAT_A|PLANT_001|DC_001|2024-01-10|net demand for forecast|000141</t>
+  </si>
+  <si>
+    <t>MAT_A|PLANT_001|DC_002|2024-01-07|net demand for forecast|000113</t>
+  </si>
+  <si>
+    <t>MAT_A|PLANT_001|DC_002|2024-01-07|net demand for forecast|000134</t>
+  </si>
+  <si>
+    <t>MAT_A|PLANT_001|DC_002|2024-01-08|net demand for forecast|000094</t>
+  </si>
+  <si>
+    <t>MAT_A|PLANT_001|DC_002|2024-01-08|net demand for forecast|000114</t>
+  </si>
+  <si>
+    <t>MAT_A|PLANT_001|DC_002|2024-01-08|net demand for forecast|000135</t>
   </si>
   <si>
     <t>MAT_B</t>
@@ -554,7 +560,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:M13"/>
+  <dimension ref="A1:M15"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -609,13 +615,13 @@
         <v>16</v>
       </c>
       <c r="C2" t="s">
-        <v>27</v>
+        <v>29</v>
       </c>
       <c r="D2" t="s">
-        <v>29</v>
+        <v>31</v>
       </c>
       <c r="E2" t="s">
-        <v>30</v>
+        <v>32</v>
       </c>
       <c r="F2" s="2">
         <v>45298</v>
@@ -627,19 +633,19 @@
         <v>45299</v>
       </c>
       <c r="I2">
-        <v>15</v>
+        <v>7</v>
       </c>
       <c r="J2" t="s">
-        <v>32</v>
+        <v>34</v>
       </c>
       <c r="K2">
-        <v>0.9940000000000001</v>
+        <v>0.7040000000000001</v>
       </c>
       <c r="L2">
-        <v>0.9940000000000001</v>
+        <v>0.7040000000000001</v>
       </c>
       <c r="M2">
-        <v>0.9675</v>
+        <v>0.6899999999999999</v>
       </c>
     </row>
     <row r="3" spans="1:13">
@@ -650,13 +656,13 @@
         <v>17</v>
       </c>
       <c r="C3" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="D3" t="s">
-        <v>29</v>
+        <v>31</v>
       </c>
       <c r="E3" t="s">
-        <v>30</v>
+        <v>32</v>
       </c>
       <c r="F3" s="2">
         <v>45298</v>
@@ -668,19 +674,19 @@
         <v>45299</v>
       </c>
       <c r="I3">
-        <v>19</v>
+        <v>12</v>
       </c>
       <c r="J3" t="s">
-        <v>32</v>
+        <v>34</v>
       </c>
       <c r="K3">
-        <v>0.9940000000000001</v>
+        <v>0.7040000000000001</v>
       </c>
       <c r="L3">
-        <v>0.9940000000000001</v>
+        <v>0.7040000000000001</v>
       </c>
       <c r="M3">
-        <v>0.9675</v>
+        <v>0.6899999999999999</v>
       </c>
     </row>
     <row r="4" spans="1:13">
@@ -691,13 +697,13 @@
         <v>18</v>
       </c>
       <c r="C4" t="s">
-        <v>27</v>
+        <v>29</v>
       </c>
       <c r="D4" t="s">
-        <v>29</v>
+        <v>31</v>
       </c>
       <c r="E4" t="s">
-        <v>30</v>
+        <v>32</v>
       </c>
       <c r="F4" s="2">
         <v>45299</v>
@@ -709,19 +715,19 @@
         <v>45299</v>
       </c>
       <c r="I4">
-        <v>15</v>
+        <v>7</v>
       </c>
       <c r="J4" t="s">
-        <v>32</v>
+        <v>34</v>
       </c>
       <c r="K4">
-        <v>0.9940000000000001</v>
+        <v>0.7040000000000001</v>
       </c>
       <c r="L4">
-        <v>0.9940000000000001</v>
+        <v>0.7040000000000001</v>
       </c>
       <c r="M4">
-        <v>0.9675</v>
+        <v>0.6899999999999999</v>
       </c>
     </row>
     <row r="5" spans="1:13">
@@ -732,13 +738,13 @@
         <v>19</v>
       </c>
       <c r="C5" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="D5" t="s">
-        <v>29</v>
+        <v>31</v>
       </c>
       <c r="E5" t="s">
-        <v>30</v>
+        <v>32</v>
       </c>
       <c r="F5" s="2">
         <v>45299</v>
@@ -750,19 +756,19 @@
         <v>45299</v>
       </c>
       <c r="I5">
-        <v>19</v>
+        <v>12</v>
       </c>
       <c r="J5" t="s">
-        <v>32</v>
+        <v>34</v>
       </c>
       <c r="K5">
-        <v>0.9940000000000001</v>
+        <v>0.7040000000000001</v>
       </c>
       <c r="L5">
-        <v>0.9940000000000001</v>
+        <v>0.7040000000000001</v>
       </c>
       <c r="M5">
-        <v>0.9675</v>
+        <v>0.6899999999999999</v>
       </c>
     </row>
     <row r="6" spans="1:13">
@@ -773,13 +779,13 @@
         <v>20</v>
       </c>
       <c r="C6" t="s">
-        <v>27</v>
+        <v>29</v>
       </c>
       <c r="D6" t="s">
-        <v>29</v>
+        <v>31</v>
       </c>
       <c r="E6" t="s">
-        <v>30</v>
+        <v>32</v>
       </c>
       <c r="F6" s="2">
         <v>45300</v>
@@ -791,19 +797,19 @@
         <v>45299</v>
       </c>
       <c r="I6">
-        <v>15</v>
+        <v>7</v>
       </c>
       <c r="J6" t="s">
-        <v>32</v>
+        <v>34</v>
       </c>
       <c r="K6">
-        <v>0.9940000000000001</v>
+        <v>0.7040000000000001</v>
       </c>
       <c r="L6">
-        <v>0.9940000000000001</v>
+        <v>0.7040000000000001</v>
       </c>
       <c r="M6">
-        <v>0.9675</v>
+        <v>0.6899999999999999</v>
       </c>
     </row>
     <row r="7" spans="1:13">
@@ -814,13 +820,13 @@
         <v>21</v>
       </c>
       <c r="C7" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="D7" t="s">
-        <v>29</v>
+        <v>31</v>
       </c>
       <c r="E7" t="s">
-        <v>30</v>
+        <v>32</v>
       </c>
       <c r="F7" s="2">
         <v>45300</v>
@@ -832,19 +838,19 @@
         <v>45299</v>
       </c>
       <c r="I7">
-        <v>19</v>
+        <v>12</v>
       </c>
       <c r="J7" t="s">
-        <v>32</v>
+        <v>34</v>
       </c>
       <c r="K7">
-        <v>0.9940000000000001</v>
+        <v>0.7040000000000001</v>
       </c>
       <c r="L7">
-        <v>0.9940000000000001</v>
+        <v>0.7040000000000001</v>
       </c>
       <c r="M7">
-        <v>0.9675</v>
+        <v>0.6899999999999999</v>
       </c>
     </row>
     <row r="8" spans="1:13">
@@ -855,13 +861,13 @@
         <v>22</v>
       </c>
       <c r="C8" t="s">
-        <v>27</v>
+        <v>29</v>
       </c>
       <c r="D8" t="s">
-        <v>29</v>
+        <v>31</v>
       </c>
       <c r="E8" t="s">
-        <v>30</v>
+        <v>32</v>
       </c>
       <c r="F8" s="2">
         <v>45301</v>
@@ -873,36 +879,36 @@
         <v>45299</v>
       </c>
       <c r="I8">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="J8" t="s">
-        <v>32</v>
+        <v>34</v>
       </c>
       <c r="K8">
-        <v>0.9940000000000001</v>
+        <v>0.7040000000000001</v>
       </c>
       <c r="L8">
-        <v>0.9940000000000001</v>
+        <v>0.7040000000000001</v>
       </c>
       <c r="M8">
-        <v>0.9675</v>
+        <v>0.6899999999999999</v>
       </c>
     </row>
     <row r="9" spans="1:13">
       <c r="A9" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="B9" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="C9" t="s">
-        <v>27</v>
+        <v>30</v>
       </c>
       <c r="D9" t="s">
-        <v>29</v>
+        <v>31</v>
       </c>
       <c r="E9" t="s">
-        <v>30</v>
+        <v>32</v>
       </c>
       <c r="F9" s="2">
         <v>45301</v>
@@ -914,19 +920,19 @@
         <v>45299</v>
       </c>
       <c r="I9">
-        <v>7</v>
+        <v>12</v>
       </c>
       <c r="J9" t="s">
-        <v>32</v>
+        <v>34</v>
       </c>
       <c r="K9">
-        <v>0.246</v>
+        <v>0.7040000000000001</v>
       </c>
       <c r="L9">
-        <v>0.246</v>
+        <v>0.7040000000000001</v>
       </c>
       <c r="M9">
-        <v>0.2425</v>
+        <v>0.6899999999999999</v>
       </c>
     </row>
     <row r="10" spans="1:13">
@@ -934,57 +940,57 @@
         <v>14</v>
       </c>
       <c r="B10" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="C10" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="D10" t="s">
+        <v>31</v>
+      </c>
+      <c r="E10" t="s">
+        <v>33</v>
+      </c>
+      <c r="F10" s="2">
+        <v>45298</v>
+      </c>
+      <c r="G10" s="2">
+        <v>45297</v>
+      </c>
+      <c r="H10" s="2">
+        <v>45299</v>
+      </c>
+      <c r="I10">
         <v>29</v>
       </c>
-      <c r="E10" t="s">
-        <v>30</v>
-      </c>
-      <c r="F10" s="2">
-        <v>45301</v>
-      </c>
-      <c r="G10" s="2">
-        <v>45297</v>
-      </c>
-      <c r="H10" s="2">
-        <v>45299</v>
-      </c>
-      <c r="I10">
-        <v>19</v>
-      </c>
       <c r="J10" t="s">
-        <v>32</v>
+        <v>35</v>
       </c>
       <c r="K10">
-        <v>0.246</v>
+        <v>1</v>
       </c>
       <c r="L10">
-        <v>0.246</v>
+        <v>1</v>
       </c>
       <c r="M10">
-        <v>0.2425</v>
+        <v>1</v>
       </c>
     </row>
     <row r="11" spans="1:13">
       <c r="A11" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="B11" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="C11" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="D11" t="s">
-        <v>29</v>
+        <v>31</v>
       </c>
       <c r="E11" t="s">
-        <v>31</v>
+        <v>33</v>
       </c>
       <c r="F11" s="2">
         <v>45298</v>
@@ -996,10 +1002,10 @@
         <v>45300</v>
       </c>
       <c r="I11">
-        <v>19</v>
+        <v>25</v>
       </c>
       <c r="J11" t="s">
-        <v>33</v>
+        <v>35</v>
       </c>
       <c r="K11">
         <v>1</v>
@@ -1013,19 +1019,19 @@
     </row>
     <row r="12" spans="1:13">
       <c r="A12" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="B12" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="C12" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="D12" t="s">
-        <v>29</v>
+        <v>31</v>
       </c>
       <c r="E12" t="s">
-        <v>31</v>
+        <v>33</v>
       </c>
       <c r="F12" s="2">
         <v>45299</v>
@@ -1037,10 +1043,10 @@
         <v>45299</v>
       </c>
       <c r="I12">
-        <v>19</v>
+        <v>6</v>
       </c>
       <c r="J12" t="s">
-        <v>33</v>
+        <v>35</v>
       </c>
       <c r="K12">
         <v>1</v>
@@ -1060,36 +1066,118 @@
         <v>26</v>
       </c>
       <c r="C13" t="s">
+        <v>30</v>
+      </c>
+      <c r="D13" t="s">
+        <v>31</v>
+      </c>
+      <c r="E13" t="s">
+        <v>33</v>
+      </c>
+      <c r="F13" s="2">
+        <v>45299</v>
+      </c>
+      <c r="G13" s="2">
+        <v>45297</v>
+      </c>
+      <c r="H13" s="2">
+        <v>45299</v>
+      </c>
+      <c r="I13">
+        <v>26</v>
+      </c>
+      <c r="J13" t="s">
+        <v>35</v>
+      </c>
+      <c r="K13">
+        <v>1</v>
+      </c>
+      <c r="L13">
+        <v>1</v>
+      </c>
+      <c r="M13">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="14" spans="1:13">
+      <c r="A14" t="s">
+        <v>15</v>
+      </c>
+      <c r="B14" t="s">
+        <v>27</v>
+      </c>
+      <c r="C14" t="s">
+        <v>30</v>
+      </c>
+      <c r="D14" t="s">
+        <v>31</v>
+      </c>
+      <c r="E14" t="s">
+        <v>33</v>
+      </c>
+      <c r="F14" s="2">
+        <v>45299</v>
+      </c>
+      <c r="G14" s="2">
+        <v>45297</v>
+      </c>
+      <c r="H14" s="2">
+        <v>45300</v>
+      </c>
+      <c r="I14">
+        <v>31</v>
+      </c>
+      <c r="J14" t="s">
+        <v>35</v>
+      </c>
+      <c r="K14">
+        <v>1</v>
+      </c>
+      <c r="L14">
+        <v>1</v>
+      </c>
+      <c r="M14">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="15" spans="1:13">
+      <c r="A15" t="s">
+        <v>15</v>
+      </c>
+      <c r="B15" t="s">
         <v>28</v>
       </c>
-      <c r="D13" t="s">
-        <v>29</v>
-      </c>
-      <c r="E13" t="s">
-        <v>31</v>
-      </c>
-      <c r="F13" s="2">
-        <v>45300</v>
-      </c>
-      <c r="G13" s="2">
-        <v>45297</v>
-      </c>
-      <c r="H13" s="2">
-        <v>45299</v>
-      </c>
-      <c r="I13">
-        <v>22</v>
-      </c>
-      <c r="J13" t="s">
+      <c r="C15" t="s">
+        <v>30</v>
+      </c>
+      <c r="D15" t="s">
+        <v>31</v>
+      </c>
+      <c r="E15" t="s">
         <v>33</v>
       </c>
-      <c r="K13">
-        <v>1</v>
-      </c>
-      <c r="L13">
-        <v>1</v>
-      </c>
-      <c r="M13">
+      <c r="F15" s="2">
+        <v>45299</v>
+      </c>
+      <c r="G15" s="2">
+        <v>45297</v>
+      </c>
+      <c r="H15" s="2">
+        <v>45299</v>
+      </c>
+      <c r="I15">
+        <v>3</v>
+      </c>
+      <c r="J15" t="s">
+        <v>35</v>
+      </c>
+      <c r="K15">
+        <v>1</v>
+      </c>
+      <c r="L15">
+        <v>1</v>
+      </c>
+      <c r="M15">
         <v>1</v>
       </c>
     </row>
@@ -1108,7 +1196,7 @@
   <sheetData>
     <row r="1" spans="1:12">
       <c r="A1" s="1" t="s">
-        <v>34</v>
+        <v>36</v>
       </c>
       <c r="B1" s="1" t="s">
         <v>3</v>
@@ -1120,19 +1208,19 @@
         <v>9</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>35</v>
+        <v>37</v>
       </c>
       <c r="F1" s="1" t="s">
         <v>0</v>
       </c>
       <c r="G1" s="1" t="s">
-        <v>36</v>
+        <v>38</v>
       </c>
       <c r="H1" s="1" t="s">
-        <v>37</v>
+        <v>39</v>
       </c>
       <c r="I1" s="1" t="s">
-        <v>38</v>
+        <v>40</v>
       </c>
       <c r="J1" s="1" t="s">
         <v>11</v>
@@ -1141,7 +1229,7 @@
         <v>12</v>
       </c>
       <c r="L1" s="1" t="s">
-        <v>39</v>
+        <v>41</v>
       </c>
     </row>
     <row r="2" spans="1:12">
@@ -1149,13 +1237,13 @@
         <v>45297</v>
       </c>
       <c r="B2" t="s">
-        <v>29</v>
+        <v>31</v>
       </c>
       <c r="C2" t="s">
-        <v>30</v>
+        <v>32</v>
       </c>
       <c r="D2" t="s">
-        <v>32</v>
+        <v>34</v>
       </c>
       <c r="E2">
         <v>1</v>
@@ -1164,22 +1252,22 @@
         <v>13</v>
       </c>
       <c r="G2">
-        <v>110</v>
+        <v>76</v>
       </c>
       <c r="H2">
-        <v>99.40000000000001</v>
+        <v>70.40000000000001</v>
       </c>
       <c r="I2">
-        <v>193.5</v>
+        <v>138</v>
       </c>
       <c r="J2">
-        <v>0.9940000000000001</v>
+        <v>0.7040000000000001</v>
       </c>
       <c r="K2">
-        <v>0.9675</v>
+        <v>0.6899999999999999</v>
       </c>
       <c r="L2" t="s">
-        <v>40</v>
+        <v>42</v>
       </c>
     </row>
     <row r="3" spans="1:12">
@@ -1187,37 +1275,37 @@
         <v>45297</v>
       </c>
       <c r="B3" t="s">
-        <v>29</v>
+        <v>31</v>
       </c>
       <c r="C3" t="s">
-        <v>30</v>
+        <v>33</v>
       </c>
       <c r="D3" t="s">
-        <v>32</v>
+        <v>35</v>
       </c>
       <c r="E3">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="F3" t="s">
         <v>14</v>
       </c>
       <c r="G3">
-        <v>26</v>
+        <v>60</v>
       </c>
       <c r="H3">
-        <v>24.6</v>
+        <v>60</v>
       </c>
       <c r="I3">
-        <v>48.5</v>
+        <v>120</v>
       </c>
       <c r="J3">
-        <v>0.246</v>
+        <v>1</v>
       </c>
       <c r="K3">
-        <v>0.2425</v>
+        <v>1</v>
       </c>
       <c r="L3" t="s">
-        <v>40</v>
+        <v>42</v>
       </c>
     </row>
     <row r="4" spans="1:12">
@@ -1225,16 +1313,16 @@
         <v>45297</v>
       </c>
       <c r="B4" t="s">
-        <v>29</v>
+        <v>31</v>
       </c>
       <c r="C4" t="s">
-        <v>31</v>
+        <v>33</v>
       </c>
       <c r="D4" t="s">
-        <v>33</v>
+        <v>35</v>
       </c>
       <c r="E4">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F4" t="s">
         <v>15</v>
@@ -1255,7 +1343,7 @@
         <v>1</v>
       </c>
       <c r="L4" t="s">
-        <v>40</v>
+        <v>42</v>
       </c>
     </row>
   </sheetData>
@@ -1273,7 +1361,7 @@
   <sheetData>
     <row r="1" spans="1:5">
       <c r="A1" s="1" t="s">
-        <v>34</v>
+        <v>36</v>
       </c>
       <c r="B1" s="1" t="s">
         <v>3</v>
@@ -1285,7 +1373,7 @@
         <v>9</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>41</v>
+        <v>43</v>
       </c>
     </row>
     <row r="2" spans="1:5">
@@ -1293,16 +1381,16 @@
         <v>45297</v>
       </c>
       <c r="B2" t="s">
-        <v>29</v>
+        <v>31</v>
       </c>
       <c r="C2" t="s">
-        <v>30</v>
+        <v>32</v>
       </c>
       <c r="D2" t="s">
-        <v>32</v>
+        <v>34</v>
       </c>
       <c r="E2">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="3" spans="1:5">
@@ -1310,16 +1398,16 @@
         <v>45297</v>
       </c>
       <c r="B3" t="s">
-        <v>29</v>
+        <v>31</v>
       </c>
       <c r="C3" t="s">
-        <v>31</v>
+        <v>33</v>
       </c>
       <c r="D3" t="s">
-        <v>33</v>
+        <v>35</v>
       </c>
       <c r="E3">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
   </sheetData>
@@ -1349,74 +1437,74 @@
   <sheetData>
     <row r="1" spans="1:8">
       <c r="A1" s="1" t="s">
-        <v>42</v>
+        <v>44</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>43</v>
+        <v>45</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>44</v>
+        <v>46</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>45</v>
+        <v>47</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>46</v>
+        <v>48</v>
       </c>
       <c r="F1" s="1" t="s">
-        <v>47</v>
+        <v>49</v>
       </c>
       <c r="G1" s="1" t="s">
-        <v>48</v>
+        <v>50</v>
       </c>
       <c r="H1" s="1" t="s">
-        <v>49</v>
+        <v>51</v>
       </c>
     </row>
     <row r="2" spans="1:8">
       <c r="A2" t="s">
-        <v>50</v>
+        <v>52</v>
       </c>
       <c r="C2" t="s">
-        <v>51</v>
+        <v>53</v>
       </c>
       <c r="D2" t="s">
-        <v>53</v>
+        <v>55</v>
       </c>
       <c r="E2" t="s">
-        <v>54</v>
+        <v>56</v>
       </c>
       <c r="F2" t="s">
-        <v>55</v>
+        <v>57</v>
       </c>
       <c r="G2">
         <v>1</v>
       </c>
       <c r="H2" t="s">
-        <v>57</v>
+        <v>59</v>
       </c>
     </row>
     <row r="3" spans="1:8">
       <c r="A3" t="s">
-        <v>50</v>
+        <v>52</v>
       </c>
       <c r="C3" t="s">
-        <v>52</v>
+        <v>54</v>
       </c>
       <c r="D3" t="s">
-        <v>53</v>
+        <v>55</v>
       </c>
       <c r="E3" t="s">
-        <v>54</v>
+        <v>56</v>
       </c>
       <c r="F3" t="s">
-        <v>56</v>
+        <v>58</v>
       </c>
       <c r="G3">
         <v>1</v>
       </c>
       <c r="H3" t="s">
-        <v>57</v>
+        <v>59</v>
       </c>
     </row>
   </sheetData>

--- a/e2e_test_output_12week_forecast_test/simulation_output/module6/Module6Output_20240106.xlsx
+++ b/e2e_test_output_12week_forecast_test/simulation_output/module6/Module6Output_20240106.xlsx
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="155" uniqueCount="60">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="154" uniqueCount="59">
   <si>
     <t>vehicle_uid</t>
   </si>
@@ -63,55 +63,52 @@
     <t>20240106-PLANT_001-DC_001-LARGE-#1</t>
   </si>
   <si>
+    <t>20240106-PLANT_001-DC_001-LARGE-#2</t>
+  </si>
+  <si>
     <t>20240106-PLANT_001-DC_002-MEDIUM-#1</t>
   </si>
   <si>
     <t>20240106-PLANT_001-DC_002-MEDIUM-#2</t>
   </si>
   <si>
-    <t>MAT_B|PLANT_001|DC_001|2024-01-07|net demand for forecast|000122</t>
-  </si>
-  <si>
-    <t>MAT_A|PLANT_001|DC_001|2024-01-07|net demand for forecast|000138</t>
-  </si>
-  <si>
-    <t>MAT_B|PLANT_001|DC_001|2024-01-08|net demand for forecast|000123</t>
-  </si>
-  <si>
-    <t>MAT_A|PLANT_001|DC_001|2024-01-08|net demand for forecast|000139</t>
-  </si>
-  <si>
-    <t>MAT_B|PLANT_001|DC_001|2024-01-09|net demand for forecast|000124</t>
-  </si>
-  <si>
-    <t>MAT_A|PLANT_001|DC_001|2024-01-09|net demand for forecast|000140</t>
-  </si>
-  <si>
-    <t>MAT_B|PLANT_001|DC_001|2024-01-10|net demand for forecast|000125</t>
-  </si>
-  <si>
-    <t>MAT_A|PLANT_001|DC_001|2024-01-10|net demand for forecast|000141</t>
-  </si>
-  <si>
-    <t>MAT_A|PLANT_001|DC_002|2024-01-07|net demand for forecast|000113</t>
-  </si>
-  <si>
-    <t>MAT_A|PLANT_001|DC_002|2024-01-07|net demand for forecast|000134</t>
-  </si>
-  <si>
-    <t>MAT_A|PLANT_001|DC_002|2024-01-08|net demand for forecast|000094</t>
-  </si>
-  <si>
-    <t>MAT_A|PLANT_001|DC_002|2024-01-08|net demand for forecast|000114</t>
-  </si>
-  <si>
-    <t>MAT_A|PLANT_001|DC_002|2024-01-08|net demand for forecast|000135</t>
+    <t>MAT_A|PLANT_001|DC_001|2024-01-07|net demand for forecast|000110</t>
+  </si>
+  <si>
+    <t>MAT_B|PLANT_001|DC_001|2024-01-07|net demand for forecast|000115</t>
+  </si>
+  <si>
+    <t>MAT_A|PLANT_001|DC_001|2024-01-08|net demand for forecast|000111</t>
+  </si>
+  <si>
+    <t>MAT_B|PLANT_001|DC_001|2024-01-08|net demand for forecast|000116</t>
+  </si>
+  <si>
+    <t>MAT_A|PLANT_001|DC_001|2024-01-09|net demand for forecast|000112</t>
+  </si>
+  <si>
+    <t>MAT_B|PLANT_001|DC_001|2024-01-09|net demand for forecast|000117</t>
+  </si>
+  <si>
+    <t>MAT_A|PLANT_001|DC_001|2024-01-10|net demand for forecast|000113</t>
+  </si>
+  <si>
+    <t>MAT_B|PLANT_001|DC_001|2024-01-10|net demand for forecast|000118</t>
+  </si>
+  <si>
+    <t>MAT_A|PLANT_001|DC_002|2024-01-07|net demand for forecast|000086</t>
+  </si>
+  <si>
+    <t>MAT_A|PLANT_001|DC_002|2024-01-07|net demand for forecast|000106</t>
+  </si>
+  <si>
+    <t>MAT_A|PLANT_001|DC_002|2024-01-08|net demand for forecast|000087</t>
+  </si>
+  <si>
+    <t>MAT_A</t>
   </si>
   <si>
     <t>MAT_B</t>
-  </si>
-  <si>
-    <t>MAT_A</t>
   </si>
   <si>
     <t>PLANT_001</t>
@@ -560,7 +557,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:M15"/>
+  <dimension ref="A1:M14"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -612,16 +609,16 @@
         <v>13</v>
       </c>
       <c r="B2" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="C2" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="D2" t="s">
+        <v>30</v>
+      </c>
+      <c r="E2" t="s">
         <v>31</v>
-      </c>
-      <c r="E2" t="s">
-        <v>32</v>
       </c>
       <c r="F2" s="2">
         <v>45298</v>
@@ -633,19 +630,19 @@
         <v>45299</v>
       </c>
       <c r="I2">
-        <v>7</v>
+        <v>25</v>
       </c>
       <c r="J2" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="K2">
-        <v>0.7040000000000001</v>
+        <v>0.998</v>
       </c>
       <c r="L2">
-        <v>0.7040000000000001</v>
+        <v>0.998</v>
       </c>
       <c r="M2">
-        <v>0.6899999999999999</v>
+        <v>0.9825</v>
       </c>
     </row>
     <row r="3" spans="1:13">
@@ -653,16 +650,16 @@
         <v>13</v>
       </c>
       <c r="B3" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="C3" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="D3" t="s">
+        <v>30</v>
+      </c>
+      <c r="E3" t="s">
         <v>31</v>
-      </c>
-      <c r="E3" t="s">
-        <v>32</v>
       </c>
       <c r="F3" s="2">
         <v>45298</v>
@@ -674,19 +671,19 @@
         <v>45299</v>
       </c>
       <c r="I3">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="J3" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="K3">
-        <v>0.7040000000000001</v>
+        <v>0.998</v>
       </c>
       <c r="L3">
-        <v>0.7040000000000001</v>
+        <v>0.998</v>
       </c>
       <c r="M3">
-        <v>0.6899999999999999</v>
+        <v>0.9825</v>
       </c>
     </row>
     <row r="4" spans="1:13">
@@ -694,16 +691,16 @@
         <v>13</v>
       </c>
       <c r="B4" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="C4" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="D4" t="s">
+        <v>30</v>
+      </c>
+      <c r="E4" t="s">
         <v>31</v>
-      </c>
-      <c r="E4" t="s">
-        <v>32</v>
       </c>
       <c r="F4" s="2">
         <v>45299</v>
@@ -715,19 +712,19 @@
         <v>45299</v>
       </c>
       <c r="I4">
-        <v>7</v>
+        <v>25</v>
       </c>
       <c r="J4" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="K4">
-        <v>0.7040000000000001</v>
+        <v>0.998</v>
       </c>
       <c r="L4">
-        <v>0.7040000000000001</v>
+        <v>0.998</v>
       </c>
       <c r="M4">
-        <v>0.6899999999999999</v>
+        <v>0.9825</v>
       </c>
     </row>
     <row r="5" spans="1:13">
@@ -735,16 +732,16 @@
         <v>13</v>
       </c>
       <c r="B5" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="C5" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="D5" t="s">
+        <v>30</v>
+      </c>
+      <c r="E5" t="s">
         <v>31</v>
-      </c>
-      <c r="E5" t="s">
-        <v>32</v>
       </c>
       <c r="F5" s="2">
         <v>45299</v>
@@ -756,19 +753,19 @@
         <v>45299</v>
       </c>
       <c r="I5">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="J5" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="K5">
-        <v>0.7040000000000001</v>
+        <v>0.998</v>
       </c>
       <c r="L5">
-        <v>0.7040000000000001</v>
+        <v>0.998</v>
       </c>
       <c r="M5">
-        <v>0.6899999999999999</v>
+        <v>0.9825</v>
       </c>
     </row>
     <row r="6" spans="1:13">
@@ -776,16 +773,16 @@
         <v>13</v>
       </c>
       <c r="B6" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="C6" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="D6" t="s">
+        <v>30</v>
+      </c>
+      <c r="E6" t="s">
         <v>31</v>
-      </c>
-      <c r="E6" t="s">
-        <v>32</v>
       </c>
       <c r="F6" s="2">
         <v>45300</v>
@@ -797,19 +794,19 @@
         <v>45299</v>
       </c>
       <c r="I6">
-        <v>7</v>
+        <v>25</v>
       </c>
       <c r="J6" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="K6">
-        <v>0.7040000000000001</v>
+        <v>0.998</v>
       </c>
       <c r="L6">
-        <v>0.7040000000000001</v>
+        <v>0.998</v>
       </c>
       <c r="M6">
-        <v>0.6899999999999999</v>
+        <v>0.9825</v>
       </c>
     </row>
     <row r="7" spans="1:13">
@@ -817,16 +814,16 @@
         <v>13</v>
       </c>
       <c r="B7" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="C7" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="D7" t="s">
+        <v>30</v>
+      </c>
+      <c r="E7" t="s">
         <v>31</v>
-      </c>
-      <c r="E7" t="s">
-        <v>32</v>
       </c>
       <c r="F7" s="2">
         <v>45300</v>
@@ -838,24 +835,24 @@
         <v>45299</v>
       </c>
       <c r="I7">
-        <v>12</v>
+        <v>5</v>
       </c>
       <c r="J7" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="K7">
-        <v>0.7040000000000001</v>
+        <v>0.998</v>
       </c>
       <c r="L7">
-        <v>0.7040000000000001</v>
+        <v>0.998</v>
       </c>
       <c r="M7">
-        <v>0.6899999999999999</v>
+        <v>0.9825</v>
       </c>
     </row>
     <row r="8" spans="1:13">
       <c r="A8" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="B8" t="s">
         <v>22</v>
@@ -864,13 +861,13 @@
         <v>29</v>
       </c>
       <c r="D8" t="s">
+        <v>30</v>
+      </c>
+      <c r="E8" t="s">
         <v>31</v>
       </c>
-      <c r="E8" t="s">
-        <v>32</v>
-      </c>
       <c r="F8" s="2">
-        <v>45301</v>
+        <v>45300</v>
       </c>
       <c r="G8" s="2">
         <v>45297</v>
@@ -879,36 +876,36 @@
         <v>45299</v>
       </c>
       <c r="I8">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="J8" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="K8">
-        <v>0.7040000000000001</v>
+        <v>0.418</v>
       </c>
       <c r="L8">
-        <v>0.7040000000000001</v>
+        <v>0.418</v>
       </c>
       <c r="M8">
-        <v>0.6899999999999999</v>
+        <v>0.4075</v>
       </c>
     </row>
     <row r="9" spans="1:13">
       <c r="A9" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="B9" t="s">
         <v>23</v>
       </c>
       <c r="C9" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="D9" t="s">
+        <v>30</v>
+      </c>
+      <c r="E9" t="s">
         <v>31</v>
-      </c>
-      <c r="E9" t="s">
-        <v>32</v>
       </c>
       <c r="F9" s="2">
         <v>45301</v>
@@ -920,19 +917,19 @@
         <v>45299</v>
       </c>
       <c r="I9">
-        <v>12</v>
+        <v>25</v>
       </c>
       <c r="J9" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="K9">
-        <v>0.7040000000000001</v>
+        <v>0.418</v>
       </c>
       <c r="L9">
-        <v>0.7040000000000001</v>
+        <v>0.418</v>
       </c>
       <c r="M9">
-        <v>0.6899999999999999</v>
+        <v>0.4075</v>
       </c>
     </row>
     <row r="10" spans="1:13">
@@ -943,16 +940,16 @@
         <v>24</v>
       </c>
       <c r="C10" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="D10" t="s">
+        <v>30</v>
+      </c>
+      <c r="E10" t="s">
         <v>31</v>
       </c>
-      <c r="E10" t="s">
-        <v>33</v>
-      </c>
       <c r="F10" s="2">
-        <v>45298</v>
+        <v>45301</v>
       </c>
       <c r="G10" s="2">
         <v>45297</v>
@@ -961,36 +958,36 @@
         <v>45299</v>
       </c>
       <c r="I10">
-        <v>29</v>
+        <v>13</v>
       </c>
       <c r="J10" t="s">
-        <v>35</v>
+        <v>33</v>
       </c>
       <c r="K10">
-        <v>1</v>
+        <v>0.418</v>
       </c>
       <c r="L10">
-        <v>1</v>
+        <v>0.418</v>
       </c>
       <c r="M10">
-        <v>1</v>
+        <v>0.4075</v>
       </c>
     </row>
     <row r="11" spans="1:13">
       <c r="A11" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="B11" t="s">
         <v>25</v>
       </c>
       <c r="C11" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="D11" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="E11" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="F11" s="2">
         <v>45298</v>
@@ -1002,10 +999,10 @@
         <v>45300</v>
       </c>
       <c r="I11">
-        <v>25</v>
+        <v>58</v>
       </c>
       <c r="J11" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="K11">
         <v>1</v>
@@ -1019,22 +1016,22 @@
     </row>
     <row r="12" spans="1:13">
       <c r="A12" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="B12" t="s">
         <v>26</v>
       </c>
       <c r="C12" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="D12" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="E12" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="F12" s="2">
-        <v>45299</v>
+        <v>45298</v>
       </c>
       <c r="G12" s="2">
         <v>45297</v>
@@ -1043,10 +1040,10 @@
         <v>45299</v>
       </c>
       <c r="I12">
-        <v>6</v>
+        <v>2</v>
       </c>
       <c r="J12" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="K12">
         <v>1</v>
@@ -1060,22 +1057,22 @@
     </row>
     <row r="13" spans="1:13">
       <c r="A13" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="B13" t="s">
         <v>26</v>
       </c>
       <c r="C13" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="D13" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="E13" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="F13" s="2">
-        <v>45299</v>
+        <v>45298</v>
       </c>
       <c r="G13" s="2">
         <v>45297</v>
@@ -1084,10 +1081,10 @@
         <v>45299</v>
       </c>
       <c r="I13">
-        <v>26</v>
+        <v>48</v>
       </c>
       <c r="J13" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="K13">
         <v>1</v>
@@ -1101,19 +1098,19 @@
     </row>
     <row r="14" spans="1:13">
       <c r="A14" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="B14" t="s">
         <v>27</v>
       </c>
       <c r="C14" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="D14" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="E14" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="F14" s="2">
         <v>45299</v>
@@ -1125,10 +1122,10 @@
         <v>45300</v>
       </c>
       <c r="I14">
-        <v>31</v>
+        <v>12</v>
       </c>
       <c r="J14" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="K14">
         <v>1</v>
@@ -1137,47 +1134,6 @@
         <v>1</v>
       </c>
       <c r="M14">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="15" spans="1:13">
-      <c r="A15" t="s">
-        <v>15</v>
-      </c>
-      <c r="B15" t="s">
-        <v>28</v>
-      </c>
-      <c r="C15" t="s">
-        <v>30</v>
-      </c>
-      <c r="D15" t="s">
-        <v>31</v>
-      </c>
-      <c r="E15" t="s">
-        <v>33</v>
-      </c>
-      <c r="F15" s="2">
-        <v>45299</v>
-      </c>
-      <c r="G15" s="2">
-        <v>45297</v>
-      </c>
-      <c r="H15" s="2">
-        <v>45299</v>
-      </c>
-      <c r="I15">
-        <v>3</v>
-      </c>
-      <c r="J15" t="s">
-        <v>35</v>
-      </c>
-      <c r="K15">
-        <v>1</v>
-      </c>
-      <c r="L15">
-        <v>1</v>
-      </c>
-      <c r="M15">
         <v>1</v>
       </c>
     </row>
@@ -1188,7 +1144,7 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:L4"/>
+  <dimension ref="A1:L5"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -1196,7 +1152,7 @@
   <sheetData>
     <row r="1" spans="1:12">
       <c r="A1" s="1" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="B1" s="1" t="s">
         <v>3</v>
@@ -1208,19 +1164,19 @@
         <v>9</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="F1" s="1" t="s">
         <v>0</v>
       </c>
       <c r="G1" s="1" t="s">
+        <v>37</v>
+      </c>
+      <c r="H1" s="1" t="s">
         <v>38</v>
       </c>
-      <c r="H1" s="1" t="s">
+      <c r="I1" s="1" t="s">
         <v>39</v>
-      </c>
-      <c r="I1" s="1" t="s">
-        <v>40</v>
       </c>
       <c r="J1" s="1" t="s">
         <v>11</v>
@@ -1229,7 +1185,7 @@
         <v>12</v>
       </c>
       <c r="L1" s="1" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
     </row>
     <row r="2" spans="1:12">
@@ -1237,13 +1193,13 @@
         <v>45297</v>
       </c>
       <c r="B2" t="s">
+        <v>30</v>
+      </c>
+      <c r="C2" t="s">
         <v>31</v>
       </c>
-      <c r="C2" t="s">
-        <v>32</v>
-      </c>
       <c r="D2" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="E2">
         <v>1</v>
@@ -1252,22 +1208,22 @@
         <v>13</v>
       </c>
       <c r="G2">
-        <v>76</v>
+        <v>106</v>
       </c>
       <c r="H2">
-        <v>70.40000000000001</v>
+        <v>99.8</v>
       </c>
       <c r="I2">
-        <v>138</v>
+        <v>196.5</v>
       </c>
       <c r="J2">
-        <v>0.7040000000000001</v>
+        <v>0.998</v>
       </c>
       <c r="K2">
-        <v>0.6899999999999999</v>
+        <v>0.9825</v>
       </c>
       <c r="L2" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
     </row>
     <row r="3" spans="1:12">
@@ -1275,37 +1231,37 @@
         <v>45297</v>
       </c>
       <c r="B3" t="s">
+        <v>30</v>
+      </c>
+      <c r="C3" t="s">
         <v>31</v>
       </c>
-      <c r="C3" t="s">
+      <c r="D3" t="s">
         <v>33</v>
       </c>
-      <c r="D3" t="s">
-        <v>35</v>
-      </c>
       <c r="E3">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F3" t="s">
         <v>14</v>
       </c>
       <c r="G3">
-        <v>60</v>
+        <v>46</v>
       </c>
       <c r="H3">
-        <v>60</v>
+        <v>41.8</v>
       </c>
       <c r="I3">
-        <v>120</v>
+        <v>81.5</v>
       </c>
       <c r="J3">
-        <v>1</v>
+        <v>0.418</v>
       </c>
       <c r="K3">
-        <v>1</v>
+        <v>0.4075</v>
       </c>
       <c r="L3" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
     </row>
     <row r="4" spans="1:12">
@@ -1313,16 +1269,16 @@
         <v>45297</v>
       </c>
       <c r="B4" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="C4" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="D4" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="E4">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="F4" t="s">
         <v>15</v>
@@ -1343,7 +1299,45 @@
         <v>1</v>
       </c>
       <c r="L4" t="s">
-        <v>42</v>
+        <v>41</v>
+      </c>
+    </row>
+    <row r="5" spans="1:12">
+      <c r="A5" s="2">
+        <v>45297</v>
+      </c>
+      <c r="B5" t="s">
+        <v>30</v>
+      </c>
+      <c r="C5" t="s">
+        <v>32</v>
+      </c>
+      <c r="D5" t="s">
+        <v>34</v>
+      </c>
+      <c r="E5">
+        <v>2</v>
+      </c>
+      <c r="F5" t="s">
+        <v>16</v>
+      </c>
+      <c r="G5">
+        <v>60</v>
+      </c>
+      <c r="H5">
+        <v>60</v>
+      </c>
+      <c r="I5">
+        <v>120</v>
+      </c>
+      <c r="J5">
+        <v>1</v>
+      </c>
+      <c r="K5">
+        <v>1</v>
+      </c>
+      <c r="L5" t="s">
+        <v>41</v>
       </c>
     </row>
   </sheetData>
@@ -1361,7 +1355,7 @@
   <sheetData>
     <row r="1" spans="1:5">
       <c r="A1" s="1" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="B1" s="1" t="s">
         <v>3</v>
@@ -1373,7 +1367,7 @@
         <v>9</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
     </row>
     <row r="2" spans="1:5">
@@ -1381,16 +1375,16 @@
         <v>45297</v>
       </c>
       <c r="B2" t="s">
+        <v>30</v>
+      </c>
+      <c r="C2" t="s">
         <v>31</v>
       </c>
-      <c r="C2" t="s">
-        <v>32</v>
-      </c>
       <c r="D2" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="E2">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="3" spans="1:5">
@@ -1398,13 +1392,13 @@
         <v>45297</v>
       </c>
       <c r="B3" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="C3" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="D3" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="E3">
         <v>2</v>
@@ -1437,74 +1431,74 @@
   <sheetData>
     <row r="1" spans="1:8">
       <c r="A1" s="1" t="s">
+        <v>43</v>
+      </c>
+      <c r="B1" s="1" t="s">
         <v>44</v>
       </c>
-      <c r="B1" s="1" t="s">
+      <c r="C1" s="1" t="s">
         <v>45</v>
       </c>
-      <c r="C1" s="1" t="s">
+      <c r="D1" s="1" t="s">
         <v>46</v>
       </c>
-      <c r="D1" s="1" t="s">
+      <c r="E1" s="1" t="s">
         <v>47</v>
       </c>
-      <c r="E1" s="1" t="s">
+      <c r="F1" s="1" t="s">
         <v>48</v>
       </c>
-      <c r="F1" s="1" t="s">
+      <c r="G1" s="1" t="s">
         <v>49</v>
       </c>
-      <c r="G1" s="1" t="s">
+      <c r="H1" s="1" t="s">
         <v>50</v>
-      </c>
-      <c r="H1" s="1" t="s">
-        <v>51</v>
       </c>
     </row>
     <row r="2" spans="1:8">
       <c r="A2" t="s">
+        <v>51</v>
+      </c>
+      <c r="C2" t="s">
         <v>52</v>
       </c>
-      <c r="C2" t="s">
-        <v>53</v>
-      </c>
       <c r="D2" t="s">
+        <v>54</v>
+      </c>
+      <c r="E2" t="s">
         <v>55</v>
       </c>
-      <c r="E2" t="s">
+      <c r="F2" t="s">
         <v>56</v>
       </c>
-      <c r="F2" t="s">
-        <v>57</v>
-      </c>
       <c r="G2">
         <v>1</v>
       </c>
       <c r="H2" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
     </row>
     <row r="3" spans="1:8">
       <c r="A3" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="C3" t="s">
+        <v>53</v>
+      </c>
+      <c r="D3" t="s">
         <v>54</v>
       </c>
-      <c r="D3" t="s">
+      <c r="E3" t="s">
         <v>55</v>
       </c>
-      <c r="E3" t="s">
-        <v>56</v>
-      </c>
       <c r="F3" t="s">
+        <v>57</v>
+      </c>
+      <c r="G3">
+        <v>1</v>
+      </c>
+      <c r="H3" t="s">
         <v>58</v>
-      </c>
-      <c r="G3">
-        <v>1</v>
-      </c>
-      <c r="H3" t="s">
-        <v>59</v>
       </c>
     </row>
   </sheetData>
